--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_17_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_17_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2466283.041304669</v>
+        <v>-2467061.317956285</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3648562.622721712</v>
+        <v>3648562.622721708</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>288.334965525335</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>289.0697240974503</v>
       </c>
       <c r="F11" t="n">
-        <v>308.2415401854274</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>309.6000006915978</v>
@@ -1388,7 +1388,7 @@
         <v>221.8381768654981</v>
       </c>
       <c r="I11" t="n">
-        <v>47.16062625453684</v>
+        <v>47.16062625453685</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.49012359028571</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>117.8309988535884</v>
+        <v>45.79924495687948</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>150.5223597343418</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>257.141442243471</v>
       </c>
       <c r="X11" t="n">
-        <v>245.2353498307256</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>287.8382982724164</v>
@@ -1449,7 +1449,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>74.73030114942941</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -1461,13 +1461,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>93.08699679019105</v>
+        <v>25.36552731156818</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.96820235480739</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>57.10960200584135</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>40.09140601927353</v>
+        <v>40.09140601927355</v>
       </c>
       <c r="S12" t="n">
         <v>145.5589030715301</v>
@@ -1509,13 +1509,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>137.1345714815191</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>88.82797448941299</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1540,7 +1540,7 @@
         <v>49.1877098269767</v>
       </c>
       <c r="G13" t="n">
-        <v>65.20457374105997</v>
+        <v>65.20457374105996</v>
       </c>
       <c r="H13" t="n">
         <v>53.71835877551722</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>288.334965525335</v>
       </c>
       <c r="C14" t="n">
         <v>276.3462824830168</v>
@@ -1619,13 +1619,13 @@
         <v>308.2415401854274</v>
       </c>
       <c r="G14" t="n">
-        <v>21.34762579583526</v>
+        <v>309.6000006915978</v>
       </c>
       <c r="H14" t="n">
         <v>221.8381768654981</v>
       </c>
       <c r="I14" t="n">
-        <v>47.16062625453684</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.49012359028569</v>
+        <v>70.49012359028571</v>
       </c>
       <c r="T14" t="n">
         <v>117.8309988535884</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>257.141442243471</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>287.8382982724164</v>
+        <v>15.55302634932666</v>
       </c>
     </row>
     <row r="15">
@@ -1695,16 +1695,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>42.19058894490235</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1336659090721</v>
+        <v>25.36552731156818</v>
       </c>
       <c r="H15" t="n">
-        <v>95.96820235480737</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>11.84467314308922</v>
+        <v>57.10960200584135</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>40.09140601927355</v>
       </c>
       <c r="S15" t="n">
-        <v>43.79076447402614</v>
+        <v>145.5589030715301</v>
       </c>
       <c r="T15" t="n">
-        <v>83.79047563072261</v>
+        <v>185.5586142282266</v>
       </c>
       <c r="U15" t="n">
         <v>216.2896109863653</v>
@@ -1844,19 +1844,19 @@
         <v>202.3548121751544</v>
       </c>
       <c r="C17" t="n">
-        <v>190.3661291328362</v>
+        <v>190.3661291328361</v>
       </c>
       <c r="D17" t="n">
         <v>181.3474331773641</v>
       </c>
       <c r="E17" t="n">
-        <v>203.0895707472697</v>
+        <v>203.0895707472696</v>
       </c>
       <c r="F17" t="n">
         <v>222.2613868352468</v>
       </c>
       <c r="G17" t="n">
-        <v>223.6198473414172</v>
+        <v>223.6198473414171</v>
       </c>
       <c r="H17" t="n">
         <v>135.8580235153175</v>
@@ -1895,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>31.85084550340784</v>
+        <v>31.85084550340778</v>
       </c>
       <c r="U17" t="n">
-        <v>64.5422063841612</v>
+        <v>64.54220638416115</v>
       </c>
       <c r="V17" t="n">
         <v>145.8611894153335</v>
@@ -1907,7 +1907,7 @@
         <v>171.1612888932904</v>
       </c>
       <c r="X17" t="n">
-        <v>190.4615471260371</v>
+        <v>190.461547126037</v>
       </c>
       <c r="Y17" t="n">
         <v>201.8581449222358</v>
@@ -1929,19 +1929,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>119.7678704150724</v>
+        <v>127.1336659090721</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>95.96820235480739</v>
       </c>
       <c r="I18" t="n">
-        <v>57.10960200584134</v>
+        <v>47.12157984212984</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.09140601927353</v>
+        <v>40.09140601927355</v>
       </c>
       <c r="S18" t="n">
         <v>145.5589030715301</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>185.5586142282266</v>
       </c>
       <c r="U18" t="n">
         <v>216.2896109863653</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>23.1619672689417</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>41.22746252636385</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.56148380817546</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>19.3309458087904</v>
+        <v>19.33094580879035</v>
       </c>
       <c r="T19" t="n">
-        <v>41.99719680102663</v>
+        <v>41.99719680102657</v>
       </c>
       <c r="U19" t="n">
-        <v>96.55598123316489</v>
+        <v>244.9555680641786</v>
       </c>
       <c r="V19" t="n">
-        <v>70.37965944947709</v>
+        <v>70.37965944947703</v>
       </c>
       <c r="W19" t="n">
-        <v>95.54654552009035</v>
+        <v>95.54654552009029</v>
       </c>
       <c r="X19" t="n">
-        <v>41.19164751589346</v>
+        <v>41.19164751589341</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.06651527196115</v>
+        <v>32.06651527196109</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>202.3548121751541</v>
+        <v>202.3548121751544</v>
       </c>
       <c r="C20" t="n">
-        <v>190.3661291328359</v>
+        <v>190.3661291328361</v>
       </c>
       <c r="D20" t="n">
-        <v>181.3474331773638</v>
+        <v>181.3474331773641</v>
       </c>
       <c r="E20" t="n">
-        <v>203.0895707472694</v>
+        <v>203.0895707472696</v>
       </c>
       <c r="F20" t="n">
-        <v>222.2613868352465</v>
+        <v>222.2613868352468</v>
       </c>
       <c r="G20" t="n">
-        <v>223.6198473414168</v>
+        <v>223.6198473414171</v>
       </c>
       <c r="H20" t="n">
-        <v>135.8580235153172</v>
+        <v>135.8580235153175</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>31.85084550340693</v>
+        <v>31.85084550340778</v>
       </c>
       <c r="U20" t="n">
-        <v>64.54220638416088</v>
+        <v>64.54220638416115</v>
       </c>
       <c r="V20" t="n">
-        <v>145.8611894153332</v>
+        <v>145.8611894153335</v>
       </c>
       <c r="W20" t="n">
-        <v>171.1612888932901</v>
+        <v>171.1612888932904</v>
       </c>
       <c r="X20" t="n">
-        <v>190.4615471260367</v>
+        <v>190.461547126037</v>
       </c>
       <c r="Y20" t="n">
-        <v>201.8581449222355</v>
+        <v>201.8581449222358</v>
       </c>
     </row>
     <row r="21">
@@ -2166,19 +2166,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>117.1456437453576</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.1336659090721</v>
       </c>
       <c r="H21" t="n">
-        <v>95.96820235480737</v>
+        <v>95.96820235480739</v>
       </c>
       <c r="I21" t="n">
-        <v>57.10960200584134</v>
+        <v>57.10960200584135</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>40.09140601927353</v>
+        <v>40.09140601927355</v>
       </c>
       <c r="S21" t="n">
         <v>145.5589030715301</v>
@@ -2223,10 +2223,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>94.79349811163451</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>2.847821139232366</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>112.1924691238441</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>41.22746252636384</v>
+        <v>41.22746252636385</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.56148380817546</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>19.33094580879009</v>
+        <v>19.33094580879035</v>
       </c>
       <c r="T22" t="n">
-        <v>137.6281821166966</v>
+        <v>41.99719680102657</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3042731808494</v>
+        <v>96.55598123316483</v>
       </c>
       <c r="V22" t="n">
-        <v>70.37965944947678</v>
+        <v>70.37965944947703</v>
       </c>
       <c r="W22" t="n">
-        <v>95.54654552009004</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>41.19164751589315</v>
+        <v>41.19164751589341</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.06651527196084</v>
+        <v>32.06651527196109</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>202.3548121751541</v>
+        <v>202.3548121751544</v>
       </c>
       <c r="C23" t="n">
-        <v>190.3661291328359</v>
+        <v>190.3661291328361</v>
       </c>
       <c r="D23" t="n">
-        <v>181.3474331773638</v>
+        <v>181.3474331773641</v>
       </c>
       <c r="E23" t="n">
-        <v>203.0895707472694</v>
+        <v>203.0895707472696</v>
       </c>
       <c r="F23" t="n">
-        <v>222.2613868352465</v>
+        <v>222.2613868352468</v>
       </c>
       <c r="G23" t="n">
-        <v>223.6198473414168</v>
+        <v>223.6198473414171</v>
       </c>
       <c r="H23" t="n">
-        <v>135.8580235153172</v>
+        <v>135.8580235153175</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>31.85084550340751</v>
+        <v>31.85084550340778</v>
       </c>
       <c r="U23" t="n">
-        <v>64.54220638416088</v>
+        <v>64.54220638416115</v>
       </c>
       <c r="V23" t="n">
-        <v>145.8611894153332</v>
+        <v>145.8611894153335</v>
       </c>
       <c r="W23" t="n">
-        <v>171.1612888932901</v>
+        <v>171.1612888932904</v>
       </c>
       <c r="X23" t="n">
-        <v>190.4615471260367</v>
+        <v>190.461547126037</v>
       </c>
       <c r="Y23" t="n">
-        <v>201.8581449222355</v>
+        <v>201.8581449222358</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>145.5577298436975</v>
@@ -2409,13 +2409,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.1336659090721</v>
       </c>
       <c r="H24" t="n">
-        <v>95.96820235480737</v>
+        <v>95.96820235480739</v>
       </c>
       <c r="I24" t="n">
-        <v>57.10960200584134</v>
+        <v>57.10960200584135</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.89136292283951</v>
+        <v>40.09140601927355</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>216.2896109863653</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>220.2282079603372</v>
       </c>
       <c r="W24" t="n">
         <v>238.9027100790231</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.9727123385639</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.22746252636384</v>
+        <v>6.678179026672445</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.56148380817546</v>
+        <v>16.56148380817548</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>19.33094580879009</v>
+        <v>19.33094580879035</v>
       </c>
       <c r="T25" t="n">
-        <v>41.99719680102631</v>
+        <v>41.99719680102657</v>
       </c>
       <c r="U25" t="n">
-        <v>96.55598123316457</v>
+        <v>96.55598123316483</v>
       </c>
       <c r="V25" t="n">
-        <v>70.37965944947678</v>
+        <v>70.37965944947703</v>
       </c>
       <c r="W25" t="n">
-        <v>95.54654552009004</v>
+        <v>95.54654552009029</v>
       </c>
       <c r="X25" t="n">
-        <v>41.19164751589315</v>
+        <v>41.19164751589341</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.72597753778</v>
+        <v>32.06651527196109</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>221.8381768654981</v>
       </c>
       <c r="I26" t="n">
-        <v>47.16062625453685</v>
+        <v>47.16062625453687</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.49012359028572</v>
+        <v>70.49012359028571</v>
       </c>
       <c r="T26" t="n">
         <v>117.8309988535884</v>
@@ -2649,10 +2649,10 @@
         <v>127.1336659090721</v>
       </c>
       <c r="H27" t="n">
-        <v>95.96820235480737</v>
+        <v>95.96820235480739</v>
       </c>
       <c r="I27" t="n">
-        <v>57.10960200584134</v>
+        <v>57.10960200584135</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>40.09140601927353</v>
+        <v>40.09140601927355</v>
       </c>
       <c r="S27" t="n">
         <v>145.5589030715301</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.95167640003208</v>
+        <v>79.95167640003207</v>
       </c>
       <c r="C28" t="n">
-        <v>66.15167124543257</v>
+        <v>66.15167124543255</v>
       </c>
       <c r="D28" t="n">
-        <v>49.77303564301096</v>
+        <v>49.77303564301094</v>
       </c>
       <c r="E28" t="n">
-        <v>48.72078549879041</v>
+        <v>48.72078549879039</v>
       </c>
       <c r="F28" t="n">
-        <v>49.18770982697671</v>
+        <v>49.1877098269767</v>
       </c>
       <c r="G28" t="n">
-        <v>65.20457374105999</v>
+        <v>65.20457374105997</v>
       </c>
       <c r="H28" t="n">
-        <v>53.71835877551723</v>
+        <v>53.71835877551722</v>
       </c>
       <c r="I28" t="n">
-        <v>33.23895922465158</v>
+        <v>33.23895922465157</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66505460398375</v>
+        <v>34.66505460398373</v>
       </c>
       <c r="S28" t="n">
         <v>105.311099158971</v>
@@ -2776,7 +2776,7 @@
         <v>181.5266988702709</v>
       </c>
       <c r="X28" t="n">
-        <v>127.1718008660741</v>
+        <v>127.171800866074</v>
       </c>
       <c r="Y28" t="n">
         <v>118.0466686221417</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>288.3349655253348</v>
+        <v>288.334965525335</v>
       </c>
       <c r="C29" t="n">
-        <v>276.3462824830166</v>
+        <v>276.3462824830168</v>
       </c>
       <c r="D29" t="n">
-        <v>267.3275865275446</v>
+        <v>267.3275865275447</v>
       </c>
       <c r="E29" t="n">
-        <v>289.0697240974501</v>
+        <v>289.0697240974503</v>
       </c>
       <c r="F29" t="n">
-        <v>308.2415401854273</v>
+        <v>308.2415401854274</v>
       </c>
       <c r="G29" t="n">
-        <v>309.6000006915976</v>
+        <v>309.6000006915978</v>
       </c>
       <c r="H29" t="n">
-        <v>221.8381768654979</v>
+        <v>221.8381768654981</v>
       </c>
       <c r="I29" t="n">
-        <v>47.16062625453671</v>
+        <v>47.16062625453687</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.49012359028555</v>
+        <v>70.49012359028571</v>
       </c>
       <c r="T29" t="n">
-        <v>117.8309988535882</v>
+        <v>117.8309988535884</v>
       </c>
       <c r="U29" t="n">
-        <v>150.5223597343416</v>
+        <v>150.5223597343418</v>
       </c>
       <c r="V29" t="n">
-        <v>231.841342765514</v>
+        <v>231.8413427655141</v>
       </c>
       <c r="W29" t="n">
-        <v>257.1414422434709</v>
+        <v>257.141442243471</v>
       </c>
       <c r="X29" t="n">
-        <v>276.4417004762175</v>
+        <v>276.4417004762176</v>
       </c>
       <c r="Y29" t="n">
-        <v>287.8382982724162</v>
+        <v>287.8382982724164</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.95167640003191</v>
+        <v>79.95167640003207</v>
       </c>
       <c r="C31" t="n">
-        <v>66.1516712454324</v>
+        <v>66.15167124543255</v>
       </c>
       <c r="D31" t="n">
-        <v>49.77303564301079</v>
+        <v>49.77303564301094</v>
       </c>
       <c r="E31" t="n">
-        <v>48.72078549879024</v>
+        <v>48.72078549879039</v>
       </c>
       <c r="F31" t="n">
-        <v>49.18770982697654</v>
+        <v>49.1877098269767</v>
       </c>
       <c r="G31" t="n">
-        <v>65.2045737410598</v>
+        <v>65.20457374105996</v>
       </c>
       <c r="H31" t="n">
-        <v>53.71835877551707</v>
+        <v>53.71835877551722</v>
       </c>
       <c r="I31" t="n">
-        <v>33.23895922465142</v>
+        <v>33.23895922465157</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66505460398358</v>
+        <v>34.66505460398373</v>
       </c>
       <c r="S31" t="n">
-        <v>105.3110991589708</v>
+        <v>105.311099158971</v>
       </c>
       <c r="T31" t="n">
-        <v>127.977350151207</v>
+        <v>127.9773501512072</v>
       </c>
       <c r="U31" t="n">
-        <v>182.5361345833453</v>
+        <v>182.5361345833455</v>
       </c>
       <c r="V31" t="n">
-        <v>156.3598127996575</v>
+        <v>156.3598127996577</v>
       </c>
       <c r="W31" t="n">
-        <v>181.5266988702708</v>
+        <v>181.5266988702709</v>
       </c>
       <c r="X31" t="n">
-        <v>127.1718008660739</v>
+        <v>127.171800866074</v>
       </c>
       <c r="Y31" t="n">
-        <v>118.0466686221416</v>
+        <v>118.0466686221417</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>288.334965525335</v>
       </c>
       <c r="C32" t="n">
-        <v>276.3462824830167</v>
+        <v>276.3462824830168</v>
       </c>
       <c r="D32" t="n">
         <v>267.3275865275447</v>
@@ -3047,7 +3047,7 @@
         <v>221.8381768654981</v>
       </c>
       <c r="I32" t="n">
-        <v>47.16062625453685</v>
+        <v>47.16062625453688</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.49012359028569</v>
+        <v>70.49012359028572</v>
       </c>
       <c r="T32" t="n">
         <v>117.8309988535884</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.95167640003206</v>
+        <v>79.95167640003208</v>
       </c>
       <c r="C34" t="n">
-        <v>66.15167124543254</v>
+        <v>66.15167124543257</v>
       </c>
       <c r="D34" t="n">
-        <v>49.77303564301093</v>
+        <v>49.77303564301096</v>
       </c>
       <c r="E34" t="n">
-        <v>48.72078549879038</v>
+        <v>48.72078549879041</v>
       </c>
       <c r="F34" t="n">
-        <v>49.18770982697669</v>
+        <v>49.18770982697671</v>
       </c>
       <c r="G34" t="n">
-        <v>65.20457374105996</v>
+        <v>65.20457374105997</v>
       </c>
       <c r="H34" t="n">
-        <v>53.71835877551721</v>
+        <v>53.71835877551724</v>
       </c>
       <c r="I34" t="n">
-        <v>33.23895922465156</v>
+        <v>33.23895922465159</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66505460398372</v>
+        <v>34.66505460398375</v>
       </c>
       <c r="S34" t="n">
         <v>105.311099158971</v>
@@ -3241,16 +3241,16 @@
         <v>127.9773501512072</v>
       </c>
       <c r="U34" t="n">
-        <v>182.5361345833454</v>
+        <v>182.5361345833455</v>
       </c>
       <c r="V34" t="n">
-        <v>156.3598127996576</v>
+        <v>156.3598127996577</v>
       </c>
       <c r="W34" t="n">
         <v>181.5266988702709</v>
       </c>
       <c r="X34" t="n">
-        <v>127.171800866074</v>
+        <v>127.1718008660741</v>
       </c>
       <c r="Y34" t="n">
         <v>118.0466686221417</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>224.0964294492207</v>
+        <v>224.0964294492206</v>
       </c>
       <c r="C35" t="n">
         <v>212.1077464069024</v>
       </c>
       <c r="D35" t="n">
-        <v>203.0890504514304</v>
+        <v>203.0890504514303</v>
       </c>
       <c r="E35" t="n">
         <v>224.8311880213359</v>
       </c>
       <c r="F35" t="n">
-        <v>244.0030041093131</v>
+        <v>244.003004109313</v>
       </c>
       <c r="G35" t="n">
         <v>245.3614646154834</v>
       </c>
       <c r="H35" t="n">
-        <v>157.5996407893838</v>
+        <v>157.5996407893837</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.251587514171405</v>
+        <v>6.25158751417132</v>
       </c>
       <c r="T35" t="n">
-        <v>53.59246277747411</v>
+        <v>53.59246277747403</v>
       </c>
       <c r="U35" t="n">
-        <v>86.28382365822748</v>
+        <v>86.28382365822739</v>
       </c>
       <c r="V35" t="n">
-        <v>167.6028066893998</v>
+        <v>167.6028066893997</v>
       </c>
       <c r="W35" t="n">
-        <v>192.9029061673567</v>
+        <v>192.9029061673566</v>
       </c>
       <c r="X35" t="n">
-        <v>212.2031644001033</v>
+        <v>212.2031644001032</v>
       </c>
       <c r="Y35" t="n">
-        <v>223.5997621963021</v>
+        <v>223.599762196302</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.71314032391777</v>
+        <v>15.71314032391768</v>
       </c>
       <c r="C37" t="n">
-        <v>1.913135169318252</v>
+        <v>1.913135169318167</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9727123385639</v>
+        <v>0.96603766494558</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>16.56148380817548</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>45.45047793048511</v>
+        <v>41.07256308285659</v>
       </c>
       <c r="T37" t="n">
-        <v>63.7388140750929</v>
+        <v>63.73881407509281</v>
       </c>
       <c r="U37" t="n">
-        <v>118.2975985072312</v>
+        <v>118.2975985072311</v>
       </c>
       <c r="V37" t="n">
-        <v>92.12127672354336</v>
+        <v>94.98853401213464</v>
       </c>
       <c r="W37" t="n">
-        <v>117.2881627941566</v>
+        <v>117.2881627941565</v>
       </c>
       <c r="X37" t="n">
-        <v>62.93326478995974</v>
+        <v>62.93326478995965</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.80813254602742</v>
+        <v>53.80813254602734</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.251587514171401</v>
+        <v>6.251587514171405</v>
       </c>
       <c r="T38" t="n">
-        <v>53.5924627774741</v>
+        <v>53.59246277747411</v>
       </c>
       <c r="U38" t="n">
         <v>86.28382365822748</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>5.343952512574025</v>
+        <v>0.9660376649456652</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>4.377914847628387</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>41.07256308285668</v>
+        <v>207.0792377564749</v>
       </c>
       <c r="T40" t="n">
         <v>63.7388140750929</v>
@@ -3727,7 +3727,7 @@
         <v>62.93326478995974</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>53.80813254602742</v>
       </c>
     </row>
     <row r="41">
@@ -3743,13 +3743,13 @@
         <v>212.1077464069024</v>
       </c>
       <c r="D41" t="n">
-        <v>203.0890504514304</v>
+        <v>203.0890504514303</v>
       </c>
       <c r="E41" t="n">
         <v>224.8311880213359</v>
       </c>
       <c r="F41" t="n">
-        <v>244.0030041093131</v>
+        <v>244.003004109313</v>
       </c>
       <c r="G41" t="n">
         <v>245.3614646154834</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.251587514171348</v>
+        <v>6.25158751417132</v>
       </c>
       <c r="T41" t="n">
-        <v>53.59246277747405</v>
+        <v>53.59246277747403</v>
       </c>
       <c r="U41" t="n">
-        <v>86.28382365822742</v>
+        <v>86.28382365822739</v>
       </c>
       <c r="V41" t="n">
-        <v>167.6028066893998</v>
+        <v>167.6028066893997</v>
       </c>
       <c r="W41" t="n">
-        <v>192.9029061673567</v>
+        <v>192.9029061673566</v>
       </c>
       <c r="X41" t="n">
-        <v>212.2031644001033</v>
+        <v>212.2031644001032</v>
       </c>
       <c r="Y41" t="n">
         <v>223.599762196302</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.71314032391771</v>
+        <v>15.71314032391768</v>
       </c>
       <c r="C43" t="n">
-        <v>1.913135169318195</v>
+        <v>1.913135169318167</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9660376649456084</v>
+        <v>0.96603766494558</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>41.07256308285662</v>
+        <v>41.07256308285659</v>
       </c>
       <c r="T43" t="n">
-        <v>229.7454887487112</v>
+        <v>63.73881407509281</v>
       </c>
       <c r="U43" t="n">
-        <v>118.2975985072311</v>
+        <v>284.3042731808494</v>
       </c>
       <c r="V43" t="n">
-        <v>92.1212767235433</v>
+        <v>96.49919157117243</v>
       </c>
       <c r="W43" t="n">
-        <v>121.6660776417855</v>
+        <v>117.2881627941565</v>
       </c>
       <c r="X43" t="n">
-        <v>62.93326478995968</v>
+        <v>62.93326478995965</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.80813254602737</v>
+        <v>53.80813254602734</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0964294492208</v>
+        <v>224.0964294492206</v>
       </c>
       <c r="C44" t="n">
-        <v>212.1077464069026</v>
+        <v>212.1077464069024</v>
       </c>
       <c r="D44" t="n">
-        <v>203.0890504514306</v>
+        <v>203.0890504514303</v>
       </c>
       <c r="E44" t="n">
-        <v>224.8311880213361</v>
+        <v>224.8311880213359</v>
       </c>
       <c r="F44" t="n">
-        <v>244.0030041093133</v>
+        <v>244.003004109313</v>
       </c>
       <c r="G44" t="n">
-        <v>245.3614646154836</v>
+        <v>245.3614646154834</v>
       </c>
       <c r="H44" t="n">
-        <v>157.5996407893839</v>
+        <v>157.5996407893837</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.251587514171543</v>
+        <v>6.25158751417132</v>
       </c>
       <c r="T44" t="n">
-        <v>53.59246277747424</v>
+        <v>53.59246277747403</v>
       </c>
       <c r="U44" t="n">
-        <v>86.28382365822762</v>
+        <v>86.28382365822739</v>
       </c>
       <c r="V44" t="n">
-        <v>167.6028066894</v>
+        <v>167.6028066893997</v>
       </c>
       <c r="W44" t="n">
-        <v>192.9029061673569</v>
+        <v>192.9029061673566</v>
       </c>
       <c r="X44" t="n">
-        <v>212.2031644001035</v>
+        <v>212.2031644001032</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.5997621963022</v>
+        <v>223.599762196302</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.71314032391791</v>
+        <v>15.71314032391768</v>
       </c>
       <c r="C46" t="n">
-        <v>1.913135169318394</v>
+        <v>1.913135169318167</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9660376649458073</v>
+        <v>0.96603766494558</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>4.377914847629055</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>207.0792377564749</v>
+        <v>41.07256308285659</v>
       </c>
       <c r="T46" t="n">
-        <v>68.11672892272007</v>
+        <v>63.73881407509281</v>
       </c>
       <c r="U46" t="n">
-        <v>118.2975985072313</v>
+        <v>118.2975985072311</v>
       </c>
       <c r="V46" t="n">
-        <v>92.1212767235435</v>
+        <v>92.12127672354328</v>
       </c>
       <c r="W46" t="n">
-        <v>117.2881627941568</v>
+        <v>117.2881627941565</v>
       </c>
       <c r="X46" t="n">
-        <v>62.93326478995988</v>
+        <v>62.93326478995965</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.80813254602757</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1502.438208650789</v>
+        <v>1191.083117554397</v>
       </c>
       <c r="C11" t="n">
-        <v>1502.438208650789</v>
+        <v>1191.083117554397</v>
       </c>
       <c r="D11" t="n">
-        <v>1232.410343471451</v>
+        <v>921.0552523750594</v>
       </c>
       <c r="E11" t="n">
-        <v>940.420723170996</v>
+        <v>629.0656320746045</v>
       </c>
       <c r="F11" t="n">
-        <v>629.0656320746048</v>
+        <v>629.0656320746045</v>
       </c>
       <c r="G11" t="n">
-        <v>316.3383586487483</v>
+        <v>316.3383586487484</v>
       </c>
       <c r="H11" t="n">
-        <v>92.25939211794218</v>
+        <v>92.25939211794223</v>
       </c>
       <c r="I11" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="J11" t="n">
         <v>164.919138409104</v>
       </c>
       <c r="K11" t="n">
-        <v>477.4459895919362</v>
+        <v>477.4459895919361</v>
       </c>
       <c r="L11" t="n">
         <v>915.1331908979664</v>
@@ -5066,25 +5066,25 @@
         <v>2231.119795061916</v>
       </c>
       <c r="S11" t="n">
-        <v>2159.917650021223</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="T11" t="n">
-        <v>2040.896439058003</v>
+        <v>2184.857931469109</v>
       </c>
       <c r="U11" t="n">
-        <v>2040.896439058003</v>
+        <v>2032.815143858663</v>
       </c>
       <c r="V11" t="n">
-        <v>2040.896439058003</v>
+        <v>2032.815143858663</v>
       </c>
       <c r="W11" t="n">
-        <v>2040.896439058003</v>
+        <v>1773.076313309702</v>
       </c>
       <c r="X11" t="n">
-        <v>1793.183964481512</v>
+        <v>1773.076313309702</v>
       </c>
       <c r="Y11" t="n">
-        <v>1502.438208650789</v>
+        <v>1482.330557478978</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.9137831483674</v>
+        <v>720.9137831483679</v>
       </c>
       <c r="C12" t="n">
-        <v>559.2101103893222</v>
+        <v>645.4286304721766</v>
       </c>
       <c r="D12" t="n">
-        <v>420.3714733795342</v>
+        <v>506.5899934623886</v>
       </c>
       <c r="E12" t="n">
-        <v>273.3434634364054</v>
+        <v>359.5619835192599</v>
       </c>
       <c r="F12" t="n">
-        <v>138.6496653862798</v>
+        <v>224.8681854691342</v>
       </c>
       <c r="G12" t="n">
-        <v>44.62239590123831</v>
+        <v>199.2464407099744</v>
       </c>
       <c r="H12" t="n">
-        <v>44.62239590123831</v>
+        <v>102.3088625738054</v>
       </c>
       <c r="I12" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="J12" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="K12" t="n">
-        <v>230.1421980020835</v>
+        <v>323.2787541266702</v>
       </c>
       <c r="L12" t="n">
-        <v>662.0735363263906</v>
+        <v>755.2100924509773</v>
       </c>
       <c r="M12" t="n">
-        <v>1214.275685604215</v>
+        <v>755.2100924509773</v>
       </c>
       <c r="N12" t="n">
-        <v>1766.477834882039</v>
+        <v>1307.412241728802</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.119795061916</v>
+        <v>1772.054201908678</v>
       </c>
       <c r="P12" t="n">
-        <v>2231.119795061916</v>
+        <v>2132.29122032481</v>
       </c>
       <c r="Q12" t="n">
         <v>2231.119795061916</v>
@@ -5145,7 +5145,7 @@
         <v>2190.623425345478</v>
       </c>
       <c r="S12" t="n">
-        <v>2043.59423032373</v>
+        <v>2043.594230323731</v>
       </c>
       <c r="T12" t="n">
         <v>1856.161286658855</v>
@@ -5157,13 +5157,13 @@
         <v>1409.291309575507</v>
       </c>
       <c r="W12" t="n">
-        <v>1167.975440808817</v>
+        <v>1270.771540402255</v>
       </c>
       <c r="X12" t="n">
-        <v>970.0584526866111</v>
+        <v>1072.85455228005</v>
       </c>
       <c r="Y12" t="n">
-        <v>880.3332259296283</v>
+        <v>880.3332259296288</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.3144099976424</v>
+        <v>414.314409997642</v>
       </c>
       <c r="C13" t="n">
-        <v>347.494540052761</v>
+        <v>347.4945400527607</v>
       </c>
       <c r="D13" t="n">
-        <v>297.2187464739621</v>
+        <v>297.2187464739617</v>
       </c>
       <c r="E13" t="n">
-        <v>248.0058318287192</v>
+        <v>248.0058318287189</v>
       </c>
       <c r="F13" t="n">
-        <v>198.3212764479346</v>
+        <v>198.3212764479344</v>
       </c>
       <c r="G13" t="n">
-        <v>132.4580706488841</v>
+        <v>132.4580706488839</v>
       </c>
       <c r="H13" t="n">
-        <v>78.19710218876571</v>
+        <v>78.19710218876517</v>
       </c>
       <c r="I13" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="J13" t="n">
-        <v>104.5576652116672</v>
+        <v>104.557665211667</v>
       </c>
       <c r="K13" t="n">
-        <v>268.5689297794104</v>
+        <v>268.5689297794103</v>
       </c>
       <c r="L13" t="n">
-        <v>507.876729077242</v>
+        <v>507.8767290772418</v>
       </c>
       <c r="M13" t="n">
-        <v>766.6339233993397</v>
+        <v>766.6339233993396</v>
       </c>
       <c r="N13" t="n">
         <v>1024.86852814463</v>
@@ -5218,13 +5218,13 @@
         <v>1454.754060196291</v>
       </c>
       <c r="Q13" t="n">
-        <v>1539.108648437726</v>
+        <v>1539.108648437727</v>
       </c>
       <c r="R13" t="n">
         <v>1504.093441767036</v>
       </c>
       <c r="S13" t="n">
-        <v>1397.718594131711</v>
+        <v>1397.718594131712</v>
       </c>
       <c r="T13" t="n">
         <v>1268.448543473927</v>
@@ -5233,16 +5233,16 @@
         <v>1084.068609551356</v>
       </c>
       <c r="V13" t="n">
-        <v>926.1294047032168</v>
+        <v>926.1294047032166</v>
       </c>
       <c r="W13" t="n">
-        <v>742.7691028140543</v>
+        <v>742.769102814054</v>
       </c>
       <c r="X13" t="n">
-        <v>614.3127383028684</v>
+        <v>614.3127383028681</v>
       </c>
       <c r="Y13" t="n">
-        <v>495.0736790885838</v>
+        <v>495.0736790885835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1490.411852678318</v>
+        <v>1733.938871507839</v>
       </c>
       <c r="C14" t="n">
-        <v>1211.274193604564</v>
+        <v>1454.801212434085</v>
       </c>
       <c r="D14" t="n">
-        <v>941.2463284252254</v>
+        <v>1184.773347254747</v>
       </c>
       <c r="E14" t="n">
-        <v>649.2567081247705</v>
+        <v>892.7837269542922</v>
       </c>
       <c r="F14" t="n">
-        <v>337.9016170283792</v>
+        <v>581.4286358579009</v>
       </c>
       <c r="G14" t="n">
-        <v>316.3383586487476</v>
+        <v>268.7013624320445</v>
       </c>
       <c r="H14" t="n">
-        <v>92.25939211794218</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="I14" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="J14" t="n">
-        <v>44.62239590123831</v>
+        <v>164.919138409104</v>
       </c>
       <c r="K14" t="n">
-        <v>357.1492470840705</v>
+        <v>477.4459895919361</v>
       </c>
       <c r="L14" t="n">
-        <v>794.8364483901007</v>
+        <v>915.1331908979664</v>
       </c>
       <c r="M14" t="n">
-        <v>1287.997451499013</v>
+        <v>1408.294194006878</v>
       </c>
       <c r="N14" t="n">
-        <v>1767.867486827944</v>
+        <v>1408.294194006878</v>
       </c>
       <c r="O14" t="n">
-        <v>1767.867486827944</v>
+        <v>1765.247199406364</v>
       </c>
       <c r="P14" t="n">
-        <v>2077.855824441592</v>
+        <v>2075.235537020012</v>
       </c>
       <c r="Q14" t="n">
         <v>2231.119795061916</v>
@@ -5306,22 +5306,22 @@
         <v>2159.917650021223</v>
       </c>
       <c r="T14" t="n">
-        <v>2040.896439058002</v>
+        <v>2040.896439058003</v>
       </c>
       <c r="U14" t="n">
-        <v>2040.896439058002</v>
+        <v>2040.896439058003</v>
       </c>
       <c r="V14" t="n">
-        <v>2040.896439058002</v>
+        <v>2040.896439058003</v>
       </c>
       <c r="W14" t="n">
-        <v>1781.157608509041</v>
+        <v>2040.896439058003</v>
       </c>
       <c r="X14" t="n">
-        <v>1781.157608509041</v>
+        <v>2040.896439058003</v>
       </c>
       <c r="Y14" t="n">
-        <v>1490.411852678318</v>
+        <v>2025.18631143242</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>864.2062524582439</v>
+        <v>618.1176835549295</v>
       </c>
       <c r="C15" t="n">
-        <v>702.5025796991986</v>
+        <v>456.4140107958842</v>
       </c>
       <c r="D15" t="n">
-        <v>563.6639426894106</v>
+        <v>317.5753737860963</v>
       </c>
       <c r="E15" t="n">
-        <v>416.6359327462819</v>
+        <v>170.5473638429675</v>
       </c>
       <c r="F15" t="n">
-        <v>281.9421346961562</v>
+        <v>127.9306073329651</v>
       </c>
       <c r="G15" t="n">
-        <v>153.5242903435581</v>
+        <v>102.3088625738054</v>
       </c>
       <c r="H15" t="n">
-        <v>56.58671220738904</v>
+        <v>102.3088625738054</v>
       </c>
       <c r="I15" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="J15" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="K15" t="n">
         <v>323.2787541266702</v>
@@ -5364,43 +5364,43 @@
         <v>755.2100924509773</v>
       </c>
       <c r="M15" t="n">
-        <v>755.2100924509773</v>
+        <v>1307.412241728802</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.412241728801</v>
+        <v>1674.245361813032</v>
       </c>
       <c r="O15" t="n">
-        <v>1772.054201908678</v>
+        <v>1674.245361813032</v>
       </c>
       <c r="P15" t="n">
-        <v>2132.29122032481</v>
+        <v>2034.482380229163</v>
       </c>
       <c r="Q15" t="n">
         <v>2231.119795061916</v>
       </c>
       <c r="R15" t="n">
-        <v>2231.119795061916</v>
+        <v>2190.623425345478</v>
       </c>
       <c r="S15" t="n">
-        <v>2186.886699633606</v>
+        <v>2043.594230323731</v>
       </c>
       <c r="T15" t="n">
-        <v>2102.24985556217</v>
+        <v>1856.161286658855</v>
       </c>
       <c r="U15" t="n">
-        <v>1883.775501030487</v>
+        <v>1637.686932127173</v>
       </c>
       <c r="V15" t="n">
-        <v>1655.379878478821</v>
+        <v>1409.291309575507</v>
       </c>
       <c r="W15" t="n">
-        <v>1414.064009712131</v>
+        <v>1167.975440808817</v>
       </c>
       <c r="X15" t="n">
-        <v>1216.147021589926</v>
+        <v>970.0584526866115</v>
       </c>
       <c r="Y15" t="n">
-        <v>1023.625695239505</v>
+        <v>777.5371263361903</v>
       </c>
     </row>
     <row r="16">
@@ -5413,70 +5413,70 @@
         <v>414.3144099976417</v>
       </c>
       <c r="C16" t="n">
-        <v>347.4945400527603</v>
+        <v>347.4945400527604</v>
       </c>
       <c r="D16" t="n">
-        <v>297.2187464739614</v>
+        <v>297.2187464739615</v>
       </c>
       <c r="E16" t="n">
         <v>248.0058318287186</v>
       </c>
       <c r="F16" t="n">
-        <v>198.321276447934</v>
+        <v>198.3212764479341</v>
       </c>
       <c r="G16" t="n">
         <v>132.4580706488836</v>
       </c>
       <c r="H16" t="n">
-        <v>78.19710218876516</v>
+        <v>78.19710218876517</v>
       </c>
       <c r="I16" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="J16" t="n">
-        <v>104.5576652116666</v>
+        <v>104.557665211667</v>
       </c>
       <c r="K16" t="n">
-        <v>268.5689297794098</v>
+        <v>268.5689297794103</v>
       </c>
       <c r="L16" t="n">
-        <v>507.8767290772414</v>
+        <v>507.8767290772418</v>
       </c>
       <c r="M16" t="n">
-        <v>766.633923399339</v>
+        <v>766.6339233993397</v>
       </c>
       <c r="N16" t="n">
-        <v>1024.868528144629</v>
+        <v>1024.86852814463</v>
       </c>
       <c r="O16" t="n">
-        <v>1260.162531829993</v>
+        <v>1260.162531829994</v>
       </c>
       <c r="P16" t="n">
         <v>1454.754060196291</v>
       </c>
       <c r="Q16" t="n">
-        <v>1539.108648437726</v>
+        <v>1539.108648437727</v>
       </c>
       <c r="R16" t="n">
         <v>1504.093441767036</v>
       </c>
       <c r="S16" t="n">
-        <v>1397.718594131711</v>
+        <v>1397.718594131712</v>
       </c>
       <c r="T16" t="n">
-        <v>1268.448543473926</v>
+        <v>1268.448543473927</v>
       </c>
       <c r="U16" t="n">
         <v>1084.068609551355</v>
       </c>
       <c r="V16" t="n">
-        <v>926.1294047032162</v>
+        <v>926.1294047032163</v>
       </c>
       <c r="W16" t="n">
-        <v>742.7691028140537</v>
+        <v>742.7691028140538</v>
       </c>
       <c r="X16" t="n">
-        <v>614.3127383028677</v>
+        <v>614.3127383028678</v>
       </c>
       <c r="Y16" t="n">
         <v>495.0736790885832</v>
@@ -5501,28 +5501,28 @@
         <v>632.2378077113199</v>
       </c>
       <c r="F17" t="n">
-        <v>407.7313563625858</v>
+        <v>407.7313563625862</v>
       </c>
       <c r="G17" t="n">
         <v>181.8527226843873</v>
       </c>
       <c r="H17" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="I17" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="J17" t="n">
         <v>164.919138409104</v>
       </c>
       <c r="K17" t="n">
-        <v>477.4459895919362</v>
+        <v>477.4459895919361</v>
       </c>
       <c r="L17" t="n">
-        <v>915.1331908979664</v>
+        <v>477.4459895919361</v>
       </c>
       <c r="M17" t="n">
-        <v>1364.362521879111</v>
+        <v>884.4924865501803</v>
       </c>
       <c r="N17" t="n">
         <v>1364.362521879111</v>
@@ -5543,7 +5543,7 @@
         <v>2231.119795061916</v>
       </c>
       <c r="T17" t="n">
-        <v>2198.947223846352</v>
+        <v>2198.947223846353</v>
       </c>
       <c r="U17" t="n">
         <v>2133.753075983564</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>805.5506272198045</v>
+        <v>618.1176835549295</v>
       </c>
       <c r="C18" t="n">
-        <v>643.8469544607592</v>
+        <v>456.4140107958842</v>
       </c>
       <c r="D18" t="n">
-        <v>505.0083174509713</v>
+        <v>317.5753737860963</v>
       </c>
       <c r="E18" t="n">
-        <v>357.9803075078425</v>
+        <v>317.5753737860963</v>
       </c>
       <c r="F18" t="n">
-        <v>223.2865094577168</v>
+        <v>317.5753737860963</v>
       </c>
       <c r="G18" t="n">
-        <v>102.3088625738053</v>
+        <v>189.1575294334982</v>
       </c>
       <c r="H18" t="n">
-        <v>102.3088625738053</v>
+        <v>92.21995129732908</v>
       </c>
       <c r="I18" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="J18" t="n">
         <v>133.6426184273641</v>
@@ -5604,13 +5604,13 @@
         <v>1396.432464254927</v>
       </c>
       <c r="N18" t="n">
-        <v>1948.634613532751</v>
+        <v>1406.240816465908</v>
       </c>
       <c r="O18" t="n">
-        <v>1948.634613532751</v>
+        <v>1870.882776645785</v>
       </c>
       <c r="P18" t="n">
-        <v>2034.482380229163</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="Q18" t="n">
         <v>2231.119795061916</v>
@@ -5619,25 +5619,25 @@
         <v>2190.623425345478</v>
       </c>
       <c r="S18" t="n">
-        <v>2043.59423032373</v>
+        <v>2043.594230323731</v>
       </c>
       <c r="T18" t="n">
-        <v>2043.59423032373</v>
+        <v>1856.161286658855</v>
       </c>
       <c r="U18" t="n">
-        <v>1825.119875792048</v>
+        <v>1637.686932127173</v>
       </c>
       <c r="V18" t="n">
-        <v>1596.724253240382</v>
+        <v>1409.291309575507</v>
       </c>
       <c r="W18" t="n">
-        <v>1355.408384473692</v>
+        <v>1167.975440808817</v>
       </c>
       <c r="X18" t="n">
-        <v>1157.491396351487</v>
+        <v>970.0584526866115</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.9700700010654</v>
+        <v>777.5371263361903</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>372.5079916484269</v>
+        <v>239.3381906152573</v>
       </c>
       <c r="C19" t="n">
-        <v>372.5079916484269</v>
+        <v>239.3381906152573</v>
       </c>
       <c r="D19" t="n">
-        <v>372.5079916484269</v>
+        <v>86.26629744301999</v>
       </c>
       <c r="E19" t="n">
-        <v>220.4989774097457</v>
+        <v>86.26629744301999</v>
       </c>
       <c r="F19" t="n">
-        <v>68.01832243552286</v>
+        <v>86.26629744301999</v>
       </c>
       <c r="G19" t="n">
-        <v>44.62239590123831</v>
+        <v>86.26629744301999</v>
       </c>
       <c r="H19" t="n">
-        <v>44.62239590123831</v>
+        <v>86.26629744301999</v>
       </c>
       <c r="I19" t="n">
-        <v>44.62239590123831</v>
+        <v>86.26629744301999</v>
       </c>
       <c r="J19" t="n">
-        <v>44.62239590123831</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="K19" t="n">
         <v>107.8832032574527</v>
@@ -5692,31 +5692,31 @@
         <v>790.316047616689</v>
       </c>
       <c r="Q19" t="n">
-        <v>773.5872760932795</v>
+        <v>790.316047616689</v>
       </c>
       <c r="R19" t="n">
-        <v>773.5872760932795</v>
+        <v>790.316047616689</v>
       </c>
       <c r="S19" t="n">
-        <v>754.0610682056124</v>
+        <v>770.789839729022</v>
       </c>
       <c r="T19" t="n">
-        <v>711.6396572954845</v>
+        <v>728.3684288188941</v>
       </c>
       <c r="U19" t="n">
-        <v>614.1083631205705</v>
+        <v>480.9385620874006</v>
       </c>
       <c r="V19" t="n">
-        <v>543.0177980200885</v>
+        <v>409.8479969869187</v>
       </c>
       <c r="W19" t="n">
-        <v>446.5061358785831</v>
+        <v>313.3363348454134</v>
       </c>
       <c r="X19" t="n">
-        <v>404.8984111150543</v>
+        <v>271.7286100818847</v>
       </c>
       <c r="Y19" t="n">
-        <v>372.5079916484269</v>
+        <v>239.3381906152573</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1212.847033021895</v>
+        <v>1212.847033021897</v>
       </c>
       <c r="C20" t="n">
-        <v>1020.558013695798</v>
+        <v>1020.5580136958</v>
       </c>
       <c r="D20" t="n">
-        <v>837.3787882641177</v>
+        <v>837.3787882641188</v>
       </c>
       <c r="E20" t="n">
-        <v>632.2378077113203</v>
+        <v>632.2378077113212</v>
       </c>
       <c r="F20" t="n">
-        <v>407.7313563625865</v>
+        <v>407.7313563625871</v>
       </c>
       <c r="G20" t="n">
-        <v>181.8527226843869</v>
+        <v>181.8527226843873</v>
       </c>
       <c r="H20" t="n">
-        <v>44.62239590123826</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="I20" t="n">
-        <v>44.62239590123826</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="J20" t="n">
         <v>164.919138409104</v>
       </c>
       <c r="K20" t="n">
-        <v>477.4459895919362</v>
+        <v>477.4459895919361</v>
       </c>
       <c r="L20" t="n">
-        <v>915.1331908979664</v>
+        <v>884.4924865501803</v>
       </c>
       <c r="M20" t="n">
-        <v>1408.294194006878</v>
+        <v>884.4924865501803</v>
       </c>
       <c r="N20" t="n">
-        <v>1888.16422933581</v>
+        <v>1364.362521879111</v>
       </c>
       <c r="O20" t="n">
-        <v>1888.16422933581</v>
+        <v>1765.247199406364</v>
       </c>
       <c r="P20" t="n">
-        <v>2075.235537020009</v>
+        <v>2075.235537020012</v>
       </c>
       <c r="Q20" t="n">
-        <v>2231.119795061913</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="R20" t="n">
-        <v>2231.119795061913</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="S20" t="n">
-        <v>2231.119795061913</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="T20" t="n">
-        <v>2198.94722384635</v>
+        <v>2198.947223846354</v>
       </c>
       <c r="U20" t="n">
-        <v>2133.753075983562</v>
+        <v>2133.753075983564</v>
       </c>
       <c r="V20" t="n">
-        <v>1986.418541220599</v>
+        <v>1986.418541220601</v>
       </c>
       <c r="W20" t="n">
-        <v>1813.528350419296</v>
+        <v>1813.528350419298</v>
       </c>
       <c r="X20" t="n">
-        <v>1621.142949281885</v>
+        <v>1621.142949281887</v>
       </c>
       <c r="Y20" t="n">
-        <v>1417.245833198818</v>
+        <v>1417.24583319882</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>618.1176835549263</v>
+        <v>909.9284028246601</v>
       </c>
       <c r="C21" t="n">
-        <v>456.414010795881</v>
+        <v>748.2247300656148</v>
       </c>
       <c r="D21" t="n">
-        <v>317.5753737860931</v>
+        <v>609.3860930558269</v>
       </c>
       <c r="E21" t="n">
-        <v>199.2464407099743</v>
+        <v>462.3580831126982</v>
       </c>
       <c r="F21" t="n">
-        <v>199.2464407099743</v>
+        <v>327.6642850625726</v>
       </c>
       <c r="G21" t="n">
-        <v>199.2464407099743</v>
+        <v>199.2464407099744</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3088625738053</v>
+        <v>102.3088625738054</v>
       </c>
       <c r="I21" t="n">
-        <v>44.62239590123826</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="J21" t="n">
-        <v>44.62239590123826</v>
+        <v>133.6426184273641</v>
       </c>
       <c r="K21" t="n">
-        <v>323.2787541266702</v>
+        <v>133.6426184273641</v>
       </c>
       <c r="L21" t="n">
-        <v>662.073536326389</v>
+        <v>565.5739567516712</v>
       </c>
       <c r="M21" t="n">
-        <v>1214.275685604212</v>
+        <v>657.4012523553313</v>
       </c>
       <c r="N21" t="n">
-        <v>1766.477834882036</v>
+        <v>1209.603401633155</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.119795061913</v>
+        <v>1674.245361813032</v>
       </c>
       <c r="P21" t="n">
-        <v>2231.119795061913</v>
+        <v>2034.482380229163</v>
       </c>
       <c r="Q21" t="n">
-        <v>2231.119795061913</v>
+        <v>2231.119795061916</v>
       </c>
       <c r="R21" t="n">
-        <v>2190.623425345475</v>
+        <v>2190.623425345478</v>
       </c>
       <c r="S21" t="n">
-        <v>2043.594230323728</v>
+        <v>2043.594230323731</v>
       </c>
       <c r="T21" t="n">
-        <v>1856.161286658852</v>
+        <v>1856.161286658855</v>
       </c>
       <c r="U21" t="n">
-        <v>1637.68693212717</v>
+        <v>1637.686932127173</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.291309575504</v>
+        <v>1409.291309575507</v>
       </c>
       <c r="W21" t="n">
-        <v>1167.975440808814</v>
+        <v>1167.975440808817</v>
       </c>
       <c r="X21" t="n">
-        <v>970.0584526866083</v>
+        <v>1072.224432615247</v>
       </c>
       <c r="Y21" t="n">
-        <v>777.5371263361872</v>
+        <v>1069.347845605921</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.26629744301992</v>
+        <v>199.5920238307413</v>
       </c>
       <c r="C22" t="n">
-        <v>86.26629744301992</v>
+        <v>86.26629744301999</v>
       </c>
       <c r="D22" t="n">
-        <v>86.26629744301992</v>
+        <v>86.26629744301999</v>
       </c>
       <c r="E22" t="n">
-        <v>86.26629744301992</v>
+        <v>86.26629744301999</v>
       </c>
       <c r="F22" t="n">
-        <v>86.26629744301992</v>
+        <v>86.26629744301999</v>
       </c>
       <c r="G22" t="n">
-        <v>86.26629744301992</v>
+        <v>86.26629744301999</v>
       </c>
       <c r="H22" t="n">
-        <v>86.26629744301992</v>
+        <v>86.26629744301999</v>
       </c>
       <c r="I22" t="n">
-        <v>86.26629744301992</v>
+        <v>86.26629744301999</v>
       </c>
       <c r="J22" t="n">
-        <v>44.62239590123826</v>
+        <v>44.62239590123833</v>
       </c>
       <c r="K22" t="n">
-        <v>107.8832032574526</v>
+        <v>107.8832032574527</v>
       </c>
       <c r="L22" t="n">
-        <v>246.4405453437552</v>
+        <v>246.4405453437553</v>
       </c>
       <c r="M22" t="n">
         <v>404.447282454324</v>
@@ -5929,31 +5929,31 @@
         <v>790.316047616689</v>
       </c>
       <c r="Q22" t="n">
-        <v>773.5872760932795</v>
+        <v>790.316047616689</v>
       </c>
       <c r="R22" t="n">
-        <v>773.5872760932795</v>
+        <v>790.316047616689</v>
       </c>
       <c r="S22" t="n">
-        <v>754.0610682056127</v>
+        <v>770.789839729022</v>
       </c>
       <c r="T22" t="n">
-        <v>615.0427024311717</v>
+        <v>728.3684288188941</v>
       </c>
       <c r="U22" t="n">
-        <v>327.8666689151622</v>
+        <v>630.8371346439801</v>
       </c>
       <c r="V22" t="n">
-        <v>256.7761038146806</v>
+        <v>559.7465695434983</v>
       </c>
       <c r="W22" t="n">
-        <v>160.2644416731755</v>
+        <v>273.5901680608974</v>
       </c>
       <c r="X22" t="n">
-        <v>118.656716909647</v>
+        <v>231.9824432973687</v>
       </c>
       <c r="Y22" t="n">
-        <v>86.26629744301992</v>
+        <v>199.5920238307413</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1212.847033021895</v>
+        <v>1212.847033021897</v>
       </c>
       <c r="C23" t="n">
-        <v>1020.558013695798</v>
+        <v>1020.5580136958</v>
       </c>
       <c r="D23" t="n">
-        <v>837.3787882641175</v>
+        <v>837.3787882641195</v>
       </c>
       <c r="E23" t="n">
-        <v>632.2378077113201</v>
+        <v>632.2378077113219</v>
       </c>
       <c r="F23" t="n">
-        <v>407.7313563625862</v>
+        <v>407.7313563625878</v>
       </c>
       <c r="G23" t="n">
-        <v>181.8527226843869</v>
+        <v>181.8527226843873</v>
       </c>
       <c r="H23" t="n">
-        <v>44.62239590123826</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="I23" t="n">
-        <v>44.62239590123826</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="J23" t="n">
-        <v>44.62239590123826</v>
+        <v>78.80463225843721</v>
       </c>
       <c r="K23" t="n">
-        <v>44.62239590123826</v>
+        <v>391.3314834412693</v>
       </c>
       <c r="L23" t="n">
-        <v>482.3095972072686</v>
+        <v>391.3314834412693</v>
       </c>
       <c r="M23" t="n">
-        <v>975.4706003161805</v>
+        <v>884.4924865501812</v>
       </c>
       <c r="N23" t="n">
-        <v>1455.340635645111</v>
+        <v>1364.362521879112</v>
       </c>
       <c r="O23" t="n">
-        <v>1856.225313172364</v>
+        <v>1765.247199406365</v>
       </c>
       <c r="P23" t="n">
-        <v>2166.213650786012</v>
+        <v>2075.235537020013</v>
       </c>
       <c r="Q23" t="n">
-        <v>2231.119795061913</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="R23" t="n">
-        <v>2231.119795061913</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="S23" t="n">
-        <v>2231.119795061913</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="T23" t="n">
-        <v>2198.94722384635</v>
+        <v>2198.947223846354</v>
       </c>
       <c r="U23" t="n">
-        <v>2133.753075983562</v>
+        <v>2133.753075983565</v>
       </c>
       <c r="V23" t="n">
-        <v>1986.418541220599</v>
+        <v>1986.418541220602</v>
       </c>
       <c r="W23" t="n">
-        <v>1813.528350419295</v>
+        <v>1813.528350419298</v>
       </c>
       <c r="X23" t="n">
-        <v>1621.142949281885</v>
+        <v>1621.142949281887</v>
       </c>
       <c r="Y23" t="n">
-        <v>1417.245833198818</v>
+        <v>1417.245833198821</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>781.510558472062</v>
+        <v>771.0897658148722</v>
       </c>
       <c r="C24" t="n">
-        <v>619.8068857130168</v>
+        <v>609.3860930558269</v>
       </c>
       <c r="D24" t="n">
-        <v>480.9682487032288</v>
+        <v>609.3860930558269</v>
       </c>
       <c r="E24" t="n">
-        <v>333.9402387601</v>
+        <v>462.3580831126982</v>
       </c>
       <c r="F24" t="n">
-        <v>199.2464407099743</v>
+        <v>327.6642850625726</v>
       </c>
       <c r="G24" t="n">
-        <v>199.2464407099743</v>
+        <v>199.2464407099744</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3088625738053</v>
+        <v>102.3088625738054</v>
       </c>
       <c r="I24" t="n">
-        <v>44.62239590123826</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="J24" t="n">
-        <v>133.642618427364</v>
+        <v>133.6426184273641</v>
       </c>
       <c r="K24" t="n">
-        <v>412.2989766527959</v>
+        <v>412.298976652796</v>
       </c>
       <c r="L24" t="n">
         <v>844.230314977103</v>
       </c>
       <c r="M24" t="n">
-        <v>1396.432464254926</v>
+        <v>1396.432464254927</v>
       </c>
       <c r="N24" t="n">
-        <v>1396.432464254926</v>
+        <v>1396.432464254927</v>
       </c>
       <c r="O24" t="n">
-        <v>1674.245361813029</v>
+        <v>1861.074424434804</v>
       </c>
       <c r="P24" t="n">
-        <v>2034.48238022916</v>
+        <v>2221.311442850936</v>
       </c>
       <c r="Q24" t="n">
-        <v>2231.119795061913</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="R24" t="n">
-        <v>2206.987105240863</v>
+        <v>2190.623425345479</v>
       </c>
       <c r="S24" t="n">
-        <v>2206.987105240863</v>
+        <v>2190.623425345479</v>
       </c>
       <c r="T24" t="n">
-        <v>2019.554161575988</v>
+        <v>2003.190481680604</v>
       </c>
       <c r="U24" t="n">
-        <v>1801.079807044305</v>
+        <v>1784.716127148921</v>
       </c>
       <c r="V24" t="n">
-        <v>1572.684184492639</v>
+        <v>1562.26339183545</v>
       </c>
       <c r="W24" t="n">
-        <v>1331.368315725949</v>
+        <v>1320.947523068759</v>
       </c>
       <c r="X24" t="n">
-        <v>1133.451327603744</v>
+        <v>1123.030534946554</v>
       </c>
       <c r="Y24" t="n">
-        <v>940.9300012533229</v>
+        <v>930.509208596133</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.26629744301992</v>
+        <v>372.5079916484273</v>
       </c>
       <c r="C25" t="n">
-        <v>86.26629744301992</v>
+        <v>372.5079916484273</v>
       </c>
       <c r="D25" t="n">
-        <v>86.26629744301992</v>
+        <v>372.5079916484273</v>
       </c>
       <c r="E25" t="n">
-        <v>86.26629744301992</v>
+        <v>372.5079916484273</v>
       </c>
       <c r="F25" t="n">
-        <v>86.26629744301992</v>
+        <v>220.0273366742044</v>
       </c>
       <c r="G25" t="n">
-        <v>86.26629744301992</v>
+        <v>51.36803128171556</v>
       </c>
       <c r="H25" t="n">
-        <v>86.26629744301992</v>
+        <v>51.36803128171556</v>
       </c>
       <c r="I25" t="n">
-        <v>86.26629744301992</v>
+        <v>51.36803128171556</v>
       </c>
       <c r="J25" t="n">
-        <v>44.62239590123826</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="K25" t="n">
-        <v>107.8832032574526</v>
+        <v>107.8832032574527</v>
       </c>
       <c r="L25" t="n">
-        <v>246.4405453437552</v>
+        <v>246.4405453437553</v>
       </c>
       <c r="M25" t="n">
         <v>404.447282454324</v>
@@ -6172,25 +6172,25 @@
         <v>773.5872760932795</v>
       </c>
       <c r="S25" t="n">
-        <v>754.0610682056127</v>
+        <v>754.0610682056124</v>
       </c>
       <c r="T25" t="n">
-        <v>711.6396572954851</v>
+        <v>711.6396572954845</v>
       </c>
       <c r="U25" t="n">
-        <v>614.1083631205714</v>
+        <v>614.1083631205705</v>
       </c>
       <c r="V25" t="n">
-        <v>543.0177980200898</v>
+        <v>543.0177980200887</v>
       </c>
       <c r="W25" t="n">
-        <v>446.5061358785847</v>
+        <v>446.5061358785833</v>
       </c>
       <c r="X25" t="n">
-        <v>404.8984111150563</v>
+        <v>404.8984111150546</v>
       </c>
       <c r="Y25" t="n">
-        <v>269.8216661273997</v>
+        <v>372.5079916484273</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1257.877107919961</v>
       </c>
       <c r="E26" t="n">
-        <v>965.8874876195059</v>
+        <v>965.8874876195057</v>
       </c>
       <c r="F26" t="n">
-        <v>654.5323965231146</v>
+        <v>654.5323965231144</v>
       </c>
       <c r="G26" t="n">
-        <v>341.8051230972583</v>
+        <v>341.8051230972574</v>
       </c>
       <c r="H26" t="n">
         <v>117.7261565664512</v>
@@ -6227,7 +6227,7 @@
         <v>291.1363600691419</v>
       </c>
       <c r="K26" t="n">
-        <v>704.413668463503</v>
+        <v>704.4136684635029</v>
       </c>
       <c r="L26" t="n">
         <v>1242.851326981062</v>
@@ -6239,10 +6239,10 @@
         <v>2417.383279841963</v>
       </c>
       <c r="O26" t="n">
-        <v>2919.018414580745</v>
+        <v>2818.267957369215</v>
       </c>
       <c r="P26" t="n">
-        <v>3229.006752194393</v>
+        <v>3200.161257282279</v>
       </c>
       <c r="Q26" t="n">
         <v>3456.795972535712</v>
@@ -6254,19 +6254,19 @@
         <v>3433.255872446674</v>
       </c>
       <c r="T26" t="n">
-        <v>3314.234661483454</v>
+        <v>3314.234661483453</v>
       </c>
       <c r="U26" t="n">
         <v>3162.191873873007</v>
       </c>
       <c r="V26" t="n">
-        <v>2928.008699362387</v>
+        <v>2928.008699362386</v>
       </c>
       <c r="W26" t="n">
         <v>2668.269868813426</v>
       </c>
       <c r="X26" t="n">
-        <v>2389.035827928358</v>
+        <v>2389.035827928357</v>
       </c>
       <c r="Y26" t="n">
         <v>2098.290072097634</v>
@@ -6291,7 +6291,7 @@
         <v>487.8248475612072</v>
       </c>
       <c r="F27" t="n">
-        <v>353.1310495110815</v>
+        <v>353.1310495110816</v>
       </c>
       <c r="G27" t="n">
         <v>224.7132051584834</v>
@@ -6303,22 +6303,22 @@
         <v>70.08916034974733</v>
       </c>
       <c r="J27" t="n">
-        <v>159.1093828758731</v>
+        <v>70.08916034974733</v>
       </c>
       <c r="K27" t="n">
-        <v>437.765741101305</v>
+        <v>70.08916034974733</v>
       </c>
       <c r="L27" t="n">
-        <v>869.6970794256121</v>
+        <v>502.0204986740544</v>
       </c>
       <c r="M27" t="n">
-        <v>1431.877093263434</v>
+        <v>1064.200512511877</v>
       </c>
       <c r="N27" t="n">
-        <v>1526.880885351395</v>
+        <v>1654.654661504414</v>
       </c>
       <c r="O27" t="n">
-        <v>1991.522845531272</v>
+        <v>2119.296621684291</v>
       </c>
       <c r="P27" t="n">
         <v>2351.759863947403</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>439.7811744461508</v>
+        <v>439.781174446151</v>
       </c>
       <c r="C28" t="n">
-        <v>372.9613045012694</v>
+        <v>372.9613045012696</v>
       </c>
       <c r="D28" t="n">
-        <v>322.6855109224705</v>
+        <v>322.6855109224707</v>
       </c>
       <c r="E28" t="n">
-        <v>273.4725962772276</v>
+        <v>273.4725962772279</v>
       </c>
       <c r="F28" t="n">
-        <v>223.7880408964431</v>
+        <v>223.7880408964433</v>
       </c>
       <c r="G28" t="n">
-        <v>157.9248350973926</v>
+        <v>157.9248350973928</v>
       </c>
       <c r="H28" t="n">
         <v>103.6638666372742</v>
@@ -6385,49 +6385,49 @@
         <v>130.024429660176</v>
       </c>
       <c r="K28" t="n">
-        <v>294.0356942279192</v>
+        <v>294.0356942279193</v>
       </c>
       <c r="L28" t="n">
         <v>533.3434935257508</v>
       </c>
       <c r="M28" t="n">
-        <v>792.1006878478483</v>
+        <v>792.1006878478486</v>
       </c>
       <c r="N28" t="n">
-        <v>1050.335292593138</v>
+        <v>1050.335292593139</v>
       </c>
       <c r="O28" t="n">
         <v>1285.629296278503</v>
       </c>
       <c r="P28" t="n">
-        <v>1480.2208246448</v>
+        <v>1480.220824644801</v>
       </c>
       <c r="Q28" t="n">
-        <v>1564.575412886235</v>
+        <v>1564.575412886236</v>
       </c>
       <c r="R28" t="n">
-        <v>1529.560206215544</v>
+        <v>1529.560206215545</v>
       </c>
       <c r="S28" t="n">
-        <v>1423.18535858022</v>
+        <v>1423.185358580221</v>
       </c>
       <c r="T28" t="n">
-        <v>1293.915307922435</v>
+        <v>1293.915307922436</v>
       </c>
       <c r="U28" t="n">
-        <v>1109.535373999864</v>
+        <v>1109.535373999865</v>
       </c>
       <c r="V28" t="n">
-        <v>951.5961691517248</v>
+        <v>951.5961691517257</v>
       </c>
       <c r="W28" t="n">
-        <v>768.2358672625628</v>
+        <v>768.235867262563</v>
       </c>
       <c r="X28" t="n">
-        <v>639.7795027513769</v>
+        <v>639.7795027513771</v>
       </c>
       <c r="Y28" t="n">
-        <v>520.5404435370923</v>
+        <v>520.5404435370925</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1807.042632173051</v>
+        <v>1807.042632173052</v>
       </c>
       <c r="C29" t="n">
-        <v>1527.904973099297</v>
+        <v>1527.904973099298</v>
       </c>
       <c r="D29" t="n">
-        <v>1257.877107919958</v>
+        <v>1257.87710791996</v>
       </c>
       <c r="E29" t="n">
-        <v>965.8874876195036</v>
+        <v>965.8874876195051</v>
       </c>
       <c r="F29" t="n">
-        <v>654.532396523113</v>
+        <v>654.5323965231137</v>
       </c>
       <c r="G29" t="n">
-        <v>341.8051230972569</v>
+        <v>341.8051230972574</v>
       </c>
       <c r="H29" t="n">
-        <v>117.726156566451</v>
+        <v>117.7261565664512</v>
       </c>
       <c r="I29" t="n">
-        <v>70.08916034974729</v>
+        <v>70.08916034974733</v>
       </c>
       <c r="J29" t="n">
-        <v>291.136360069142</v>
+        <v>291.1363600691419</v>
       </c>
       <c r="K29" t="n">
-        <v>704.4136684635032</v>
+        <v>704.4136684635029</v>
       </c>
       <c r="L29" t="n">
-        <v>1242.851326981063</v>
+        <v>1242.851326981062</v>
       </c>
       <c r="M29" t="n">
-        <v>1836.762787301504</v>
+        <v>1836.762787301503</v>
       </c>
       <c r="N29" t="n">
-        <v>2388.537784929847</v>
+        <v>2417.383279841963</v>
       </c>
       <c r="O29" t="n">
-        <v>2789.422462457099</v>
+        <v>2919.018414580744</v>
       </c>
       <c r="P29" t="n">
-        <v>3200.161257282276</v>
+        <v>3300.911714493808</v>
       </c>
       <c r="Q29" t="n">
-        <v>3456.79597253571</v>
+        <v>3456.795972535712</v>
       </c>
       <c r="R29" t="n">
-        <v>3504.458017487364</v>
+        <v>3504.458017487366</v>
       </c>
       <c r="S29" t="n">
-        <v>3433.255872446671</v>
+        <v>3433.255872446673</v>
       </c>
       <c r="T29" t="n">
-        <v>3314.234661483451</v>
+        <v>3314.234661483453</v>
       </c>
       <c r="U29" t="n">
-        <v>3162.191873873004</v>
+        <v>3162.191873873007</v>
       </c>
       <c r="V29" t="n">
-        <v>2928.008699362384</v>
+        <v>2928.008699362386</v>
       </c>
       <c r="W29" t="n">
-        <v>2668.269868813423</v>
+        <v>2668.269868813426</v>
       </c>
       <c r="X29" t="n">
-        <v>2389.035827928355</v>
+        <v>2389.035827928357</v>
       </c>
       <c r="Y29" t="n">
-        <v>2098.290072097631</v>
+        <v>2098.290072097633</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>935.3951672731692</v>
+        <v>1891.45590598038</v>
       </c>
       <c r="C30" t="n">
-        <v>773.691494514124</v>
+        <v>1729.752233221335</v>
       </c>
       <c r="D30" t="n">
-        <v>634.852857504336</v>
+        <v>1590.913596211547</v>
       </c>
       <c r="E30" t="n">
-        <v>487.8248475612072</v>
+        <v>1443.885586268418</v>
       </c>
       <c r="F30" t="n">
-        <v>353.1310495110815</v>
+        <v>1309.191788218292</v>
       </c>
       <c r="G30" t="n">
-        <v>224.7132051584834</v>
+        <v>1180.773943865694</v>
       </c>
       <c r="H30" t="n">
-        <v>127.7756270223143</v>
+        <v>1083.836365729525</v>
       </c>
       <c r="I30" t="n">
-        <v>70.08916034974729</v>
+        <v>1026.149899056958</v>
       </c>
       <c r="J30" t="n">
-        <v>159.1093828758731</v>
+        <v>1115.170121583084</v>
       </c>
       <c r="K30" t="n">
-        <v>159.1093828758731</v>
+        <v>1393.826479808516</v>
       </c>
       <c r="L30" t="n">
-        <v>591.0407212001801</v>
+        <v>1825.757818132823</v>
       </c>
       <c r="M30" t="n">
-        <v>936.426736358858</v>
+        <v>1892.487475066068</v>
       </c>
       <c r="N30" t="n">
-        <v>1526.880885351395</v>
+        <v>2482.941624058605</v>
       </c>
       <c r="O30" t="n">
-        <v>1991.522845531272</v>
+        <v>2947.583584238482</v>
       </c>
       <c r="P30" t="n">
-        <v>2351.759863947403</v>
+        <v>3307.820602654614</v>
       </c>
       <c r="Q30" t="n">
-        <v>2548.397278780156</v>
+        <v>3504.458017487366</v>
       </c>
       <c r="R30" t="n">
-        <v>2507.900909063718</v>
+        <v>3463.961647770928</v>
       </c>
       <c r="S30" t="n">
-        <v>2360.87171404197</v>
+        <v>3316.932452749181</v>
       </c>
       <c r="T30" t="n">
-        <v>2173.438770377095</v>
+        <v>3129.499509084305</v>
       </c>
       <c r="U30" t="n">
-        <v>1954.964415845413</v>
+        <v>2911.025154552623</v>
       </c>
       <c r="V30" t="n">
-        <v>1726.568793293747</v>
+        <v>2682.629532000958</v>
       </c>
       <c r="W30" t="n">
-        <v>1485.252924527057</v>
+        <v>2441.313663234268</v>
       </c>
       <c r="X30" t="n">
-        <v>1287.335936404851</v>
+        <v>2243.396675112062</v>
       </c>
       <c r="Y30" t="n">
-        <v>1094.81461005443</v>
+        <v>2050.875348761641</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.7811744461495</v>
+        <v>439.7811744461507</v>
       </c>
       <c r="C31" t="n">
-        <v>372.9613045012683</v>
+        <v>372.9613045012694</v>
       </c>
       <c r="D31" t="n">
-        <v>322.6855109224696</v>
+        <v>322.6855109224704</v>
       </c>
       <c r="E31" t="n">
-        <v>273.4725962772269</v>
+        <v>273.4725962772276</v>
       </c>
       <c r="F31" t="n">
-        <v>223.7880408964425</v>
+        <v>223.7880408964431</v>
       </c>
       <c r="G31" t="n">
-        <v>157.9248350973922</v>
+        <v>157.9248350973926</v>
       </c>
       <c r="H31" t="n">
-        <v>103.663866637274</v>
+        <v>103.6638666372742</v>
       </c>
       <c r="I31" t="n">
-        <v>70.08916034974729</v>
+        <v>70.08916034974733</v>
       </c>
       <c r="J31" t="n">
-        <v>130.0244296601761</v>
+        <v>130.024429660176</v>
       </c>
       <c r="K31" t="n">
-        <v>294.0356942279157</v>
+        <v>294.0356942279193</v>
       </c>
       <c r="L31" t="n">
-        <v>533.3434935257474</v>
+        <v>533.3434935257508</v>
       </c>
       <c r="M31" t="n">
-        <v>792.1006878478452</v>
+        <v>792.1006878478486</v>
       </c>
       <c r="N31" t="n">
-        <v>1050.335292593135</v>
+        <v>1050.335292593139</v>
       </c>
       <c r="O31" t="n">
-        <v>1285.6292962785</v>
+        <v>1285.629296278503</v>
       </c>
       <c r="P31" t="n">
-        <v>1480.220824644798</v>
+        <v>1480.2208246448</v>
       </c>
       <c r="Q31" t="n">
-        <v>1564.575412886233</v>
+        <v>1564.575412886235</v>
       </c>
       <c r="R31" t="n">
-        <v>1529.560206215542</v>
+        <v>1529.560206215545</v>
       </c>
       <c r="S31" t="n">
-        <v>1423.185358580218</v>
+        <v>1423.185358580221</v>
       </c>
       <c r="T31" t="n">
-        <v>1293.915307922433</v>
+        <v>1293.915307922435</v>
       </c>
       <c r="U31" t="n">
-        <v>1109.535373999862</v>
+        <v>1109.535373999864</v>
       </c>
       <c r="V31" t="n">
-        <v>951.5961691517234</v>
+        <v>951.5961691517252</v>
       </c>
       <c r="W31" t="n">
-        <v>768.235867262561</v>
+        <v>768.2358672625627</v>
       </c>
       <c r="X31" t="n">
-        <v>639.7795027513753</v>
+        <v>639.7795027513768</v>
       </c>
       <c r="Y31" t="n">
-        <v>520.5404435370908</v>
+        <v>520.5404435370922</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1807.042632173051</v>
+        <v>1807.042632173053</v>
       </c>
       <c r="C32" t="n">
-        <v>1527.904973099297</v>
+        <v>1527.904973099299</v>
       </c>
       <c r="D32" t="n">
-        <v>1257.877107919959</v>
+        <v>1257.877107919961</v>
       </c>
       <c r="E32" t="n">
-        <v>965.8874876195041</v>
+        <v>965.8874876195059</v>
       </c>
       <c r="F32" t="n">
-        <v>654.5323965231132</v>
+        <v>654.5323965231146</v>
       </c>
       <c r="G32" t="n">
-        <v>341.8051230972569</v>
+        <v>341.8051230972583</v>
       </c>
       <c r="H32" t="n">
-        <v>117.7261565664512</v>
+        <v>117.7261565664513</v>
       </c>
       <c r="I32" t="n">
-        <v>70.08916034974729</v>
+        <v>70.08916034974733</v>
       </c>
       <c r="J32" t="n">
         <v>291.1363600691419</v>
       </c>
       <c r="K32" t="n">
-        <v>704.413668463503</v>
+        <v>704.4136684635029</v>
       </c>
       <c r="L32" t="n">
         <v>1242.851326981062</v>
       </c>
       <c r="M32" t="n">
-        <v>1736.012330089974</v>
+        <v>1836.762787301503</v>
       </c>
       <c r="N32" t="n">
-        <v>2287.787327718318</v>
+        <v>2417.383279841963</v>
       </c>
       <c r="O32" t="n">
-        <v>2789.422462457099</v>
+        <v>2919.018414580744</v>
       </c>
       <c r="P32" t="n">
-        <v>3200.161257282276</v>
+        <v>3329.757209405921</v>
       </c>
       <c r="Q32" t="n">
-        <v>3456.79597253571</v>
+        <v>3504.458017487366</v>
       </c>
       <c r="R32" t="n">
-        <v>3504.458017487364</v>
+        <v>3504.458017487366</v>
       </c>
       <c r="S32" t="n">
-        <v>3433.255872446671</v>
+        <v>3433.255872446673</v>
       </c>
       <c r="T32" t="n">
-        <v>3314.234661483451</v>
+        <v>3314.234661483454</v>
       </c>
       <c r="U32" t="n">
-        <v>3162.191873873005</v>
+        <v>3162.191873873007</v>
       </c>
       <c r="V32" t="n">
-        <v>2928.008699362385</v>
+        <v>2928.008699362387</v>
       </c>
       <c r="W32" t="n">
-        <v>2668.269868813424</v>
+        <v>2668.269868813426</v>
       </c>
       <c r="X32" t="n">
-        <v>2389.035827928356</v>
+        <v>2389.035827928358</v>
       </c>
       <c r="Y32" t="n">
-        <v>2098.290072097632</v>
+        <v>2098.290072097634</v>
       </c>
     </row>
     <row r="33">
@@ -6765,22 +6765,22 @@
         <v>487.8248475612072</v>
       </c>
       <c r="F33" t="n">
-        <v>353.1310495110815</v>
+        <v>353.1310495110816</v>
       </c>
       <c r="G33" t="n">
         <v>224.7132051584834</v>
       </c>
       <c r="H33" t="n">
-        <v>127.7756270223143</v>
+        <v>127.7756270223144</v>
       </c>
       <c r="I33" t="n">
-        <v>70.08916034974729</v>
+        <v>70.08916034974733</v>
       </c>
       <c r="J33" t="n">
         <v>159.1093828758731</v>
       </c>
       <c r="K33" t="n">
-        <v>437.7657411013049</v>
+        <v>437.765741101305</v>
       </c>
       <c r="L33" t="n">
         <v>869.6970794256119</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>439.7811744461506</v>
+        <v>439.7811744461508</v>
       </c>
       <c r="C34" t="n">
-        <v>372.9613045012692</v>
+        <v>372.9613045012694</v>
       </c>
       <c r="D34" t="n">
-        <v>322.6855109224703</v>
+        <v>322.6855109224705</v>
       </c>
       <c r="E34" t="n">
-        <v>273.4725962772275</v>
+        <v>273.4725962772276</v>
       </c>
       <c r="F34" t="n">
-        <v>223.788040896443</v>
+        <v>223.7880408964431</v>
       </c>
       <c r="G34" t="n">
-        <v>157.9248350973925</v>
+        <v>157.9248350973926</v>
       </c>
       <c r="H34" t="n">
-        <v>103.6638666372741</v>
+        <v>103.6638666372742</v>
       </c>
       <c r="I34" t="n">
-        <v>70.08916034974729</v>
+        <v>70.08916034974733</v>
       </c>
       <c r="J34" t="n">
-        <v>130.0244296601763</v>
+        <v>130.024429660176</v>
       </c>
       <c r="K34" t="n">
-        <v>294.0356942279196</v>
+        <v>294.0356942279197</v>
       </c>
       <c r="L34" t="n">
         <v>533.3434935257512</v>
       </c>
       <c r="M34" t="n">
-        <v>792.1006878478486</v>
+        <v>792.1006878478488</v>
       </c>
       <c r="N34" t="n">
         <v>1050.335292593139</v>
@@ -6874,7 +6874,7 @@
         <v>1285.629296278503</v>
       </c>
       <c r="P34" t="n">
-        <v>1480.2208246448</v>
+        <v>1480.220824644801</v>
       </c>
       <c r="Q34" t="n">
         <v>1564.575412886236</v>
@@ -6886,22 +6886,22 @@
         <v>1423.185358580221</v>
       </c>
       <c r="T34" t="n">
-        <v>1293.915307922435</v>
+        <v>1293.915307922436</v>
       </c>
       <c r="U34" t="n">
-        <v>1109.535373999864</v>
+        <v>1109.535373999865</v>
       </c>
       <c r="V34" t="n">
-        <v>951.596169151725</v>
+        <v>951.5961691517253</v>
       </c>
       <c r="W34" t="n">
-        <v>768.2358672625625</v>
+        <v>768.2358672625628</v>
       </c>
       <c r="X34" t="n">
-        <v>639.7795027513766</v>
+        <v>639.7795027513769</v>
       </c>
       <c r="Y34" t="n">
-        <v>520.5404435370921</v>
+        <v>520.5404435370923</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1350.569731241902</v>
+        <v>1350.569731241903</v>
       </c>
       <c r="C35" t="n">
-        <v>1136.319482346041</v>
+        <v>1136.319482346042</v>
       </c>
       <c r="D35" t="n">
-        <v>931.1790273445968</v>
+        <v>931.1790273445976</v>
       </c>
       <c r="E35" t="n">
-        <v>704.0768172220353</v>
+        <v>704.0768172220361</v>
       </c>
       <c r="F35" t="n">
-        <v>457.6091363035375</v>
+        <v>457.609136303538</v>
       </c>
       <c r="G35" t="n">
-        <v>209.7692730555743</v>
+        <v>209.7692730555742</v>
       </c>
       <c r="H35" t="n">
         <v>50.57771670266141</v>
@@ -6965,7 +6965,7 @@
         <v>2522.571100270271</v>
       </c>
       <c r="T35" t="n">
-        <v>2468.437299484943</v>
+        <v>2468.437299484944</v>
       </c>
       <c r="U35" t="n">
         <v>2381.281922052391</v>
@@ -6980,7 +6980,7 @@
         <v>1802.788106641421</v>
       </c>
       <c r="Y35" t="n">
-        <v>1576.92976098859</v>
+        <v>1576.929760988591</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>850.185635778526</v>
       </c>
       <c r="M36" t="n">
-        <v>1412.365649616348</v>
+        <v>916.9152927117722</v>
       </c>
       <c r="N36" t="n">
         <v>1507.369441704309</v>
@@ -7041,7 +7041,7 @@
         <v>2488.389465416632</v>
       </c>
       <c r="S36" t="n">
-        <v>2341.360270394885</v>
+        <v>2341.360270394884</v>
       </c>
       <c r="T36" t="n">
         <v>2153.927326730009</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>221.1694818621384</v>
+        <v>205.9666270650295</v>
       </c>
       <c r="C37" t="n">
-        <v>219.2370220951502</v>
+        <v>204.0341672980414</v>
       </c>
       <c r="D37" t="n">
-        <v>219.2370220951502</v>
+        <v>204.0341672980414</v>
       </c>
       <c r="E37" t="n">
-        <v>219.2370220951502</v>
+        <v>204.0341672980414</v>
       </c>
       <c r="F37" t="n">
-        <v>219.2370220951502</v>
+        <v>51.55351232381856</v>
       </c>
       <c r="G37" t="n">
         <v>50.57771670266141</v>
@@ -7114,31 +7114,31 @@
         <v>796.2713684181122</v>
       </c>
       <c r="Q37" t="n">
-        <v>796.2713684181122</v>
+        <v>779.5425968947026</v>
       </c>
       <c r="R37" t="n">
-        <v>796.2713684181122</v>
+        <v>779.5425968947026</v>
       </c>
       <c r="S37" t="n">
-        <v>750.3617947509555</v>
+        <v>738.0551594372716</v>
       </c>
       <c r="T37" t="n">
-        <v>685.9791542710636</v>
+        <v>673.6725189573799</v>
       </c>
       <c r="U37" t="n">
-        <v>566.4866305263857</v>
+        <v>554.179995212702</v>
       </c>
       <c r="V37" t="n">
-        <v>473.4348358561399</v>
+        <v>458.2319810590307</v>
       </c>
       <c r="W37" t="n">
-        <v>354.9619441448706</v>
+        <v>339.7590893477615</v>
       </c>
       <c r="X37" t="n">
-        <v>291.3929898115779</v>
+        <v>276.1901350144689</v>
       </c>
       <c r="Y37" t="n">
-        <v>237.0413407751866</v>
+        <v>221.8384859780776</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>704.0768172220354</v>
       </c>
       <c r="F38" t="n">
-        <v>457.6091363035374</v>
+        <v>457.6091363035373</v>
       </c>
       <c r="G38" t="n">
         <v>209.7692730555743</v>
@@ -7181,16 +7181,16 @@
         <v>800.7917691915238</v>
       </c>
       <c r="M38" t="n">
-        <v>1182.258526621334</v>
+        <v>1293.952772300436</v>
       </c>
       <c r="N38" t="n">
-        <v>1662.128561950265</v>
+        <v>1773.822807629367</v>
       </c>
       <c r="O38" t="n">
-        <v>2063.013239477518</v>
+        <v>2174.707485156619</v>
       </c>
       <c r="P38" t="n">
-        <v>2373.001577091166</v>
+        <v>2484.695822770268</v>
       </c>
       <c r="Q38" t="n">
         <v>2528.88583513307</v>
@@ -7202,10 +7202,10 @@
         <v>2522.571100270271</v>
       </c>
       <c r="T38" t="n">
-        <v>2468.437299484943</v>
+        <v>2468.437299484944</v>
       </c>
       <c r="U38" t="n">
-        <v>2381.28192205239</v>
+        <v>2381.281922052391</v>
       </c>
       <c r="V38" t="n">
         <v>2211.986157719663</v>
@@ -7251,22 +7251,22 @@
         <v>50.57771670266141</v>
       </c>
       <c r="J39" t="n">
-        <v>50.57771670266141</v>
+        <v>119.4413553823946</v>
       </c>
       <c r="K39" t="n">
-        <v>329.2340749280933</v>
+        <v>119.4413553823946</v>
       </c>
       <c r="L39" t="n">
-        <v>761.1654132524003</v>
+        <v>551.3726937067016</v>
       </c>
       <c r="M39" t="n">
-        <v>1323.345427090223</v>
+        <v>1113.552707544524</v>
       </c>
       <c r="N39" t="n">
-        <v>1913.79957608276</v>
+        <v>1704.006856537061</v>
       </c>
       <c r="O39" t="n">
-        <v>2378.441536262637</v>
+        <v>2168.648816716938</v>
       </c>
       <c r="P39" t="n">
         <v>2528.88583513307</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57.90810830053239</v>
+        <v>57.90810830053242</v>
       </c>
       <c r="C40" t="n">
-        <v>55.97564853354426</v>
+        <v>55.97564853354429</v>
       </c>
       <c r="D40" t="n">
-        <v>55.97564853354426</v>
+        <v>55.97564853354429</v>
       </c>
       <c r="E40" t="n">
-        <v>55.97564853354426</v>
+        <v>55.97564853354429</v>
       </c>
       <c r="F40" t="n">
-        <v>55.97564853354426</v>
+        <v>55.97564853354429</v>
       </c>
       <c r="G40" t="n">
-        <v>50.57771670266141</v>
+        <v>54.99985291238705</v>
       </c>
       <c r="H40" t="n">
-        <v>50.57771670266141</v>
+        <v>54.99985291238705</v>
       </c>
       <c r="I40" t="n">
         <v>50.57771670266141</v>
@@ -7357,25 +7357,25 @@
         <v>796.2713684181122</v>
       </c>
       <c r="S40" t="n">
-        <v>754.7839309606811</v>
+        <v>587.1004211893496</v>
       </c>
       <c r="T40" t="n">
-        <v>690.4012904807893</v>
+        <v>522.7177807094578</v>
       </c>
       <c r="U40" t="n">
-        <v>570.9087667361114</v>
+        <v>403.2252569647798</v>
       </c>
       <c r="V40" t="n">
-        <v>477.8569720658655</v>
+        <v>310.173462294534</v>
       </c>
       <c r="W40" t="n">
-        <v>359.3840803545962</v>
+        <v>191.7005705832647</v>
       </c>
       <c r="X40" t="n">
-        <v>295.8151260213036</v>
+        <v>128.131616249972</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.77996721358065</v>
+        <v>73.77996721358068</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1350.569731241904</v>
+        <v>1350.569731241903</v>
       </c>
       <c r="C41" t="n">
-        <v>1136.319482346043</v>
+        <v>1136.319482346042</v>
       </c>
       <c r="D41" t="n">
         <v>931.1790273445977</v>
@@ -7397,10 +7397,10 @@
         <v>704.0768172220362</v>
       </c>
       <c r="F41" t="n">
-        <v>457.6091363035381</v>
+        <v>457.6091363035382</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7692730555743</v>
+        <v>209.7692730555742</v>
       </c>
       <c r="H41" t="n">
         <v>50.57771670266141</v>
@@ -7409,25 +7409,25 @@
         <v>50.57771670266141</v>
       </c>
       <c r="J41" t="n">
-        <v>170.8744592105271</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="K41" t="n">
-        <v>483.4013103933592</v>
+        <v>363.1045678854935</v>
       </c>
       <c r="L41" t="n">
-        <v>921.0885116993894</v>
+        <v>800.7917691915238</v>
       </c>
       <c r="M41" t="n">
-        <v>1414.249514808301</v>
+        <v>1293.952772300436</v>
       </c>
       <c r="N41" t="n">
-        <v>1894.119550137232</v>
+        <v>1773.822807629367</v>
       </c>
       <c r="O41" t="n">
-        <v>2295.004227664485</v>
+        <v>2174.707485156619</v>
       </c>
       <c r="P41" t="n">
-        <v>2373.001577091166</v>
+        <v>2484.695822770268</v>
       </c>
       <c r="Q41" t="n">
         <v>2528.88583513307</v>
@@ -7445,13 +7445,13 @@
         <v>2381.281922052391</v>
       </c>
       <c r="V41" t="n">
-        <v>2211.986157719664</v>
+        <v>2211.986157719663</v>
       </c>
       <c r="W41" t="n">
-        <v>2017.134737348597</v>
+        <v>2017.134737348596</v>
       </c>
       <c r="X41" t="n">
-        <v>1802.788106641422</v>
+        <v>1802.788106641421</v>
       </c>
       <c r="Y41" t="n">
         <v>1576.929760988591</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.8837236260828</v>
+        <v>915.8837236260832</v>
       </c>
       <c r="C42" t="n">
-        <v>754.1800508670376</v>
+        <v>754.1800508670379</v>
       </c>
       <c r="D42" t="n">
-        <v>615.3414138572498</v>
+        <v>615.34141385725</v>
       </c>
       <c r="E42" t="n">
-        <v>468.313403914121</v>
+        <v>468.3134039141213</v>
       </c>
       <c r="F42" t="n">
-        <v>333.6196058639953</v>
+        <v>333.6196058639956</v>
       </c>
       <c r="G42" t="n">
-        <v>205.2017615113973</v>
+        <v>205.2017615113975</v>
       </c>
       <c r="H42" t="n">
         <v>108.2641833752284</v>
@@ -7491,19 +7491,19 @@
         <v>50.57771670266141</v>
       </c>
       <c r="K42" t="n">
-        <v>329.2340749280933</v>
+        <v>119.4413553823946</v>
       </c>
       <c r="L42" t="n">
-        <v>761.1654132524003</v>
+        <v>551.3726937067016</v>
       </c>
       <c r="M42" t="n">
-        <v>1323.345427090223</v>
+        <v>1113.552707544524</v>
       </c>
       <c r="N42" t="n">
-        <v>1913.79957608276</v>
+        <v>1704.006856537061</v>
       </c>
       <c r="O42" t="n">
-        <v>2168.648816716939</v>
+        <v>2168.648816716938</v>
       </c>
       <c r="P42" t="n">
         <v>2528.88583513307</v>
@@ -7527,7 +7527,7 @@
         <v>1707.05734964666</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.74148087997</v>
+        <v>1465.741480879971</v>
       </c>
       <c r="X42" t="n">
         <v>1267.824492757765</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.48597209080666</v>
+        <v>53.48597209080661</v>
       </c>
       <c r="C43" t="n">
-        <v>51.55351232381859</v>
+        <v>51.55351232381856</v>
       </c>
       <c r="D43" t="n">
-        <v>51.55351232381859</v>
+        <v>51.55351232381856</v>
       </c>
       <c r="E43" t="n">
-        <v>51.55351232381859</v>
+        <v>51.55351232381856</v>
       </c>
       <c r="F43" t="n">
-        <v>51.55351232381859</v>
+        <v>51.55351232381856</v>
       </c>
       <c r="G43" t="n">
         <v>50.57771670266141</v>
@@ -7597,22 +7597,22 @@
         <v>754.7839309606812</v>
       </c>
       <c r="T43" t="n">
-        <v>522.7177807094579</v>
+        <v>690.4012904807895</v>
       </c>
       <c r="U43" t="n">
         <v>403.22525696478</v>
       </c>
       <c r="V43" t="n">
-        <v>310.1734622945342</v>
+        <v>305.7513260848078</v>
       </c>
       <c r="W43" t="n">
-        <v>187.2784343735387</v>
+        <v>187.2784343735386</v>
       </c>
       <c r="X43" t="n">
-        <v>123.7094800402461</v>
+        <v>123.709480040246</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.35783100385486</v>
+        <v>69.35783100385477</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1350.569731241904</v>
+        <v>1350.569731241903</v>
       </c>
       <c r="C44" t="n">
-        <v>1136.319482346043</v>
+        <v>1136.319482346042</v>
       </c>
       <c r="D44" t="n">
-        <v>931.1790273445977</v>
+        <v>931.1790273445976</v>
       </c>
       <c r="E44" t="n">
         <v>704.076817222036</v>
       </c>
       <c r="F44" t="n">
-        <v>457.6091363035376</v>
+        <v>457.609136303538</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7692730555745</v>
+        <v>209.7692730555742</v>
       </c>
       <c r="H44" t="n">
-        <v>50.57771670266145</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="I44" t="n">
-        <v>50.57771670266145</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="J44" t="n">
-        <v>94.7677290654662</v>
+        <v>170.8744592105271</v>
       </c>
       <c r="K44" t="n">
-        <v>407.2945802482983</v>
+        <v>483.4013103933592</v>
       </c>
       <c r="L44" t="n">
-        <v>844.9817815543286</v>
+        <v>921.0885116993894</v>
       </c>
       <c r="M44" t="n">
-        <v>1338.14278466324</v>
+        <v>1182.258526621334</v>
       </c>
       <c r="N44" t="n">
-        <v>1818.012819992171</v>
+        <v>1662.128561950265</v>
       </c>
       <c r="O44" t="n">
-        <v>2218.897497519424</v>
+        <v>2063.013239477518</v>
       </c>
       <c r="P44" t="n">
-        <v>2528.885835133072</v>
+        <v>2373.001577091166</v>
       </c>
       <c r="Q44" t="n">
-        <v>2528.885835133072</v>
+        <v>2528.88583513307</v>
       </c>
       <c r="R44" t="n">
-        <v>2528.885835133072</v>
+        <v>2528.88583513307</v>
       </c>
       <c r="S44" t="n">
-        <v>2522.571100270273</v>
+        <v>2522.571100270271</v>
       </c>
       <c r="T44" t="n">
-        <v>2468.437299484945</v>
+        <v>2468.437299484944</v>
       </c>
       <c r="U44" t="n">
-        <v>2381.281922052392</v>
+        <v>2381.281922052391</v>
       </c>
       <c r="V44" t="n">
-        <v>2211.986157719665</v>
+        <v>2211.986157719663</v>
       </c>
       <c r="W44" t="n">
-        <v>2017.134737348597</v>
+        <v>2017.134737348596</v>
       </c>
       <c r="X44" t="n">
-        <v>1802.788106641422</v>
+        <v>1802.788106641421</v>
       </c>
       <c r="Y44" t="n">
-        <v>1576.929760988592</v>
+        <v>1576.929760988591</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.8837236260832</v>
+        <v>915.8837236260828</v>
       </c>
       <c r="C45" t="n">
-        <v>754.1800508670379</v>
+        <v>754.1800508670376</v>
       </c>
       <c r="D45" t="n">
-        <v>615.34141385725</v>
+        <v>615.3414138572498</v>
       </c>
       <c r="E45" t="n">
-        <v>468.3134039141213</v>
+        <v>468.313403914121</v>
       </c>
       <c r="F45" t="n">
-        <v>333.6196058639957</v>
+        <v>333.6196058639953</v>
       </c>
       <c r="G45" t="n">
-        <v>205.2017615113975</v>
+        <v>205.2017615113973</v>
       </c>
       <c r="H45" t="n">
-        <v>108.2641833752285</v>
+        <v>108.2641833752284</v>
       </c>
       <c r="I45" t="n">
-        <v>50.57771670266145</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="J45" t="n">
-        <v>50.57771670266145</v>
+        <v>139.5979392287872</v>
       </c>
       <c r="K45" t="n">
-        <v>329.2340749280933</v>
+        <v>418.254297454219</v>
       </c>
       <c r="L45" t="n">
-        <v>761.1654132524004</v>
+        <v>850.185635778526</v>
       </c>
       <c r="M45" t="n">
-        <v>1323.345427090223</v>
+        <v>1412.365649616348</v>
       </c>
       <c r="N45" t="n">
-        <v>1913.79957608276</v>
+        <v>1507.369441704309</v>
       </c>
       <c r="O45" t="n">
-        <v>2168.648816716938</v>
+        <v>1972.011401884186</v>
       </c>
       <c r="P45" t="n">
-        <v>2528.88583513307</v>
+        <v>2332.248420300317</v>
       </c>
       <c r="Q45" t="n">
         <v>2528.88583513307</v>
@@ -7764,7 +7764,7 @@
         <v>1707.05734964666</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.741480879971</v>
+        <v>1465.74148087997</v>
       </c>
       <c r="X45" t="n">
         <v>1267.824492757765</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.48597209080711</v>
+        <v>53.48597209080661</v>
       </c>
       <c r="C46" t="n">
-        <v>51.55351232381883</v>
+        <v>51.55351232381856</v>
       </c>
       <c r="D46" t="n">
-        <v>51.55351232381883</v>
+        <v>51.55351232381856</v>
       </c>
       <c r="E46" t="n">
-        <v>51.55351232381883</v>
+        <v>51.55351232381856</v>
       </c>
       <c r="F46" t="n">
-        <v>51.55351232381883</v>
+        <v>51.55351232381856</v>
       </c>
       <c r="G46" t="n">
-        <v>50.57771670266145</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="H46" t="n">
-        <v>50.57771670266145</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="I46" t="n">
-        <v>50.57771670266145</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="J46" t="n">
-        <v>50.57771670266145</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="K46" t="n">
-        <v>113.8385240588758</v>
+        <v>113.8385240588757</v>
       </c>
       <c r="L46" t="n">
         <v>252.3958661451784</v>
       </c>
       <c r="M46" t="n">
-        <v>410.4026032557471</v>
+        <v>410.402603255747</v>
       </c>
       <c r="N46" t="n">
         <v>567.8867507895081</v>
@@ -7825,31 +7825,31 @@
         <v>796.2713684181122</v>
       </c>
       <c r="Q46" t="n">
-        <v>796.2713684181122</v>
+        <v>791.8492322083858</v>
       </c>
       <c r="R46" t="n">
-        <v>796.2713684181122</v>
+        <v>791.8492322083858</v>
       </c>
       <c r="S46" t="n">
-        <v>587.1004211893496</v>
+        <v>750.3617947509549</v>
       </c>
       <c r="T46" t="n">
-        <v>518.2956444997334</v>
+        <v>685.9791542710632</v>
       </c>
       <c r="U46" t="n">
-        <v>398.8031207550553</v>
+        <v>566.4866305263853</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7513260848093</v>
+        <v>473.4348358561396</v>
       </c>
       <c r="W46" t="n">
-        <v>187.2784343735398</v>
+        <v>354.9619441448703</v>
       </c>
       <c r="X46" t="n">
-        <v>123.709480040247</v>
+        <v>291.3929898115777</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.35783100385551</v>
+        <v>69.35783100385477</v>
       </c>
     </row>
   </sheetData>
@@ -8696,13 +8696,13 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>86.22516615794299</v>
+        <v>86.22516615794305</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
-        <v>464.0900292296633</v>
+        <v>464.0900292296638</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
@@ -8766,28 +8766,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>73.99892924947514</v>
+        <v>73.99892924947515</v>
       </c>
       <c r="K12" t="n">
-        <v>249.7274786975777</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>595.3379318042946</v>
+        <v>37.55798303881576</v>
       </c>
       <c r="N12" t="n">
-        <v>584.5067030964042</v>
+        <v>584.5067030964044</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>50.12582305400797</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.47682271038886</v>
+        <v>174.3036658791833</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.31373860463964</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -8936,16 +8936,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>568.5510017355793</v>
+        <v>83.83379433261872</v>
       </c>
       <c r="O14" t="n">
-        <v>90.10621793727324</v>
+        <v>450.664809249885</v>
       </c>
       <c r="P14" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>273.362732886583</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>73.99892924947514</v>
+        <v>73.99892924947515</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,19 +9012,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>37.55798303881572</v>
+        <v>595.3379318042948</v>
       </c>
       <c r="N15" t="n">
-        <v>584.5067030964043</v>
+        <v>397.2652594665121</v>
       </c>
       <c r="O15" t="n">
-        <v>512.0210150597484</v>
+        <v>42.68570174674134</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>174.3036658791828</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9167,13 +9167,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>542.9595789155856</v>
+        <v>100.8512947680802</v>
       </c>
       <c r="M17" t="n">
-        <v>539.9921671489979</v>
+        <v>497.3832438935432</v>
       </c>
       <c r="N17" t="n">
-        <v>83.83379433261865</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9249,19 +9249,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>595.3379318042946</v>
+        <v>595.3379318042948</v>
       </c>
       <c r="N18" t="n">
-        <v>584.5067030964043</v>
+        <v>36.63418080666374</v>
       </c>
       <c r="O18" t="n">
-        <v>42.6857017467413</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>136.8407389089693</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>74.47682271038887</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9404,19 +9404,19 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>542.9595789155856</v>
+        <v>512.0093725036804</v>
       </c>
       <c r="M20" t="n">
-        <v>584.3675935406823</v>
+        <v>86.22516615794305</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O20" t="n">
-        <v>90.10621793727324</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>294.1797045325751</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
         <v>276.0094878578761</v>
@@ -9477,28 +9477,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>73.99892924947514</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>62.33373920177458</v>
       </c>
       <c r="L21" t="n">
-        <v>388.015119475721</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>595.3379318042939</v>
+        <v>130.3128270829169</v>
       </c>
       <c r="N21" t="n">
-        <v>584.5067030964035</v>
+        <v>584.5067030964045</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>50.12582305400797</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.47682271038886</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.31373860463964</v>
+        <v>132.8412500765577</v>
       </c>
       <c r="K23" t="n">
-        <v>105.7053482790473</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>542.9595789155856</v>
+        <v>100.8512947680802</v>
       </c>
       <c r="M23" t="n">
         <v>584.3675935406823</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>184.1124032457514</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9723,19 +9723,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>595.3379318042939</v>
+        <v>595.3379318042951</v>
       </c>
       <c r="N24" t="n">
-        <v>26.72675433092536</v>
+        <v>26.7267543309254</v>
       </c>
       <c r="O24" t="n">
-        <v>323.3047901892694</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>84.38424918612768</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,10 +9951,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>73.99892924947515</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>62.33373920177458</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,13 +9963,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>122.6901806824007</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>284.9371788753333</v>
       </c>
       <c r="Q27" t="n">
         <v>273.1004740566038</v>
@@ -10191,13 +10191,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>62.33373920177458</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>386.4327458253591</v>
+        <v>104.9616769107806</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10671,10 +10671,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>104.9616769107815</v>
       </c>
       <c r="N36" t="n">
-        <v>122.6901806824012</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10829,7 +10829,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>471.5451231577514</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>163.1870174749452</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,10 +10899,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>73.99892924947515</v>
+        <v>143.5581602391046</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>62.33373920177458</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10917,7 +10917,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>202.0897613069703</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>74.47682271038887</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>98.31373860463968</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11075,10 +11075,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>184.0039891209404</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>163.1870174749452</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11139,7 +11139,7 @@
         <v>73.99892924947515</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>131.8929701914041</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11151,7 +11151,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>300.1091771348008</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>142.9501147286849</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11303,7 +11303,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406823</v>
+        <v>350.0332620386953</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11315,7 +11315,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>118.5506413509023</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>73.99892924947515</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11385,16 +11385,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>122.6901806824012</v>
       </c>
       <c r="O45" t="n">
-        <v>300.1091771348003</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>74.47682271038887</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>288.334965525335</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>276.3462824830168</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>308.2415401854274</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.49012359028571</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>72.03175389670892</v>
       </c>
       <c r="U11" t="n">
-        <v>150.5223597343418</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>231.8413427655141</v>
       </c>
       <c r="W11" t="n">
-        <v>257.141442243471</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>31.20635064549202</v>
+        <v>276.4417004762176</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>288.334965525335</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>288.2523748957625</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>47.16062625453685</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>231.8413427655141</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>257.141442243471</v>
       </c>
       <c r="X14" t="n">
         <v>276.4417004762176</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>272.2852719230897</v>
       </c>
     </row>
     <row r="15">
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.85001617220778e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26317,16 +26317,16 @@
         <v>153175.3263014609</v>
       </c>
       <c r="D2" t="n">
-        <v>153175.3263014608</v>
+        <v>153175.3263014609</v>
       </c>
       <c r="E2" t="n">
-        <v>133857.3596239535</v>
+        <v>133857.3596239534</v>
       </c>
       <c r="F2" t="n">
-        <v>133857.3596239533</v>
+        <v>133857.3596239532</v>
       </c>
       <c r="G2" t="n">
-        <v>153524.8120988362</v>
+        <v>153524.8120988363</v>
       </c>
       <c r="H2" t="n">
         <v>153524.8120988363</v>
@@ -26338,10 +26338,10 @@
         <v>153524.8120988364</v>
       </c>
       <c r="K2" t="n">
-        <v>153524.8120988361</v>
+        <v>153524.8120988363</v>
       </c>
       <c r="L2" t="n">
-        <v>153524.8120988363</v>
+        <v>153524.8120988362</v>
       </c>
       <c r="M2" t="n">
         <v>153524.8120988364</v>
@@ -26350,7 +26350,7 @@
         <v>153524.8120988365</v>
       </c>
       <c r="O2" t="n">
-        <v>153524.8120988363</v>
+        <v>153524.8120988364</v>
       </c>
       <c r="P2" t="n">
         <v>153524.8120988364</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>68784.12268014446</v>
+        <v>68784.1226801445</v>
       </c>
       <c r="H3" t="n">
-        <v>8.713747701396563e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95920.71466492976</v>
+        <v>95920.71466492972</v>
       </c>
       <c r="K3" t="n">
-        <v>1.286480255657808e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68784.12268014434</v>
+        <v>68784.12268014449</v>
       </c>
       <c r="M3" t="n">
-        <v>129612.7006801892</v>
+        <v>129612.700680189</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>12630.38819785849</v>
+        <v>12630.38819785872</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>410681.9044354911</v>
       </c>
       <c r="E4" t="n">
-        <v>279027.0070681255</v>
+        <v>279027.0070681256</v>
       </c>
       <c r="F4" t="n">
-        <v>279027.0070681255</v>
+        <v>279027.0070681256</v>
       </c>
       <c r="G4" t="n">
-        <v>334921.2684652061</v>
+        <v>334921.2684652062</v>
       </c>
       <c r="H4" t="n">
         <v>334921.2684652062</v>
       </c>
       <c r="I4" t="n">
-        <v>334921.2684652063</v>
+        <v>334921.2684652062</v>
       </c>
       <c r="J4" t="n">
         <v>328644.6441614858</v>
@@ -26445,16 +26445,16 @@
         <v>328644.6441614858</v>
       </c>
       <c r="L4" t="n">
-        <v>328644.6441614858</v>
+        <v>328644.6441614859</v>
       </c>
       <c r="M4" t="n">
-        <v>330141.7994638877</v>
+        <v>330141.7994638878</v>
       </c>
       <c r="N4" t="n">
         <v>330141.7994638877</v>
       </c>
       <c r="O4" t="n">
-        <v>330141.7994638878</v>
+        <v>330141.7994638877</v>
       </c>
       <c r="P4" t="n">
         <v>330141.7994638877</v>
@@ -26476,31 +26476,31 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>45585.60330960765</v>
+        <v>45585.60330960764</v>
       </c>
       <c r="F5" t="n">
-        <v>45585.60330960765</v>
+        <v>45585.60330960764</v>
       </c>
       <c r="G5" t="n">
         <v>52813.86882160398</v>
       </c>
       <c r="H5" t="n">
-        <v>52813.86882160396</v>
+        <v>52813.86882160398</v>
       </c>
       <c r="I5" t="n">
-        <v>52813.86882160396</v>
+        <v>52813.868821604</v>
       </c>
       <c r="J5" t="n">
         <v>64940.34429047449</v>
       </c>
       <c r="K5" t="n">
-        <v>64940.34429047447</v>
+        <v>64940.34429047449</v>
       </c>
       <c r="L5" t="n">
-        <v>64940.34429047446</v>
+        <v>64940.34429047449</v>
       </c>
       <c r="M5" t="n">
-        <v>55512.11660807204</v>
+        <v>55512.11660807205</v>
       </c>
       <c r="N5" t="n">
         <v>55512.11660807204</v>
@@ -26509,7 +26509,7 @@
         <v>55512.11660807205</v>
       </c>
       <c r="P5" t="n">
-        <v>55512.11660807206</v>
+        <v>55512.11660807205</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-291134.1781340303</v>
+        <v>-291138.5467064974</v>
       </c>
       <c r="C6" t="n">
-        <v>-291134.1781340303</v>
+        <v>-291138.5467064974</v>
       </c>
       <c r="D6" t="n">
-        <v>-291134.1781340303</v>
+        <v>-291138.5467064974</v>
       </c>
       <c r="E6" t="n">
-        <v>-553583.8263346407</v>
+        <v>-553829.6694905768</v>
       </c>
       <c r="F6" t="n">
-        <v>-190755.2507537799</v>
+        <v>-191001.0939097161</v>
       </c>
       <c r="G6" t="n">
         <v>-302994.4478681184</v>
       </c>
       <c r="H6" t="n">
-        <v>-234210.325187974</v>
+        <v>-234210.3251879739</v>
       </c>
       <c r="I6" t="n">
         <v>-234210.3251879739</v>
@@ -26546,22 +26546,22 @@
         <v>-335980.8910180537</v>
       </c>
       <c r="K6" t="n">
-        <v>-240060.1763531242</v>
+        <v>-240060.1763531241</v>
       </c>
       <c r="L6" t="n">
-        <v>-308844.2990332684</v>
+        <v>-308844.2990332686</v>
       </c>
       <c r="M6" t="n">
-        <v>-361741.8046533125</v>
+        <v>-361741.8046533124</v>
       </c>
       <c r="N6" t="n">
         <v>-232129.1039731232</v>
       </c>
       <c r="O6" t="n">
-        <v>-244759.492170982</v>
+        <v>-244759.4921709821</v>
       </c>
       <c r="P6" t="n">
-        <v>-232129.1039731234</v>
+        <v>-232129.1039731233</v>
       </c>
     </row>
   </sheetData>
@@ -26698,25 +26698,25 @@
         <v>101.7681385975039</v>
       </c>
       <c r="G2" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="H2" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="I2" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="J2" t="n">
         <v>101.7681385975039</v>
       </c>
       <c r="K2" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="L2" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="M2" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="N2" t="n">
         <v>166.0066746736182</v>
@@ -26725,7 +26725,7 @@
         <v>166.0066746736183</v>
       </c>
       <c r="P2" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
     </row>
     <row r="3">
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>142.9833385739893</v>
+        <v>142.9833385739892</v>
       </c>
       <c r="F3" t="n">
-        <v>142.9833385739893</v>
+        <v>142.9833385739892</v>
       </c>
       <c r="G3" t="n">
-        <v>142.9833385739893</v>
+        <v>142.9833385739892</v>
       </c>
       <c r="H3" t="n">
-        <v>142.9833385739893</v>
+        <v>142.9833385739892</v>
       </c>
       <c r="I3" t="n">
-        <v>142.9833385739893</v>
+        <v>142.9833385739892</v>
       </c>
       <c r="J3" t="n">
-        <v>142.9833385739893</v>
+        <v>142.9833385739892</v>
       </c>
       <c r="K3" t="n">
         <v>142.9833385739892</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>557.7799487654789</v>
+        <v>557.779948765479</v>
       </c>
       <c r="F4" t="n">
-        <v>557.7799487654789</v>
+        <v>557.779948765479</v>
       </c>
       <c r="G4" t="n">
-        <v>557.7799487654789</v>
+        <v>557.779948765479</v>
       </c>
       <c r="H4" t="n">
-        <v>557.7799487654783</v>
+        <v>557.779948765479</v>
       </c>
       <c r="I4" t="n">
-        <v>557.7799487654783</v>
+        <v>557.7799487654793</v>
       </c>
       <c r="J4" t="n">
         <v>876.1145043718416</v>
       </c>
       <c r="K4" t="n">
-        <v>876.114504371841</v>
+        <v>876.1145043718416</v>
       </c>
       <c r="L4" t="n">
-        <v>876.114504371841</v>
+        <v>876.1145043718416</v>
       </c>
       <c r="M4" t="n">
         <v>632.2214587832675</v>
@@ -26829,7 +26829,7 @@
         <v>632.2214587832675</v>
       </c>
       <c r="P4" t="n">
-        <v>632.2214587832681</v>
+        <v>632.2214587832675</v>
       </c>
     </row>
   </sheetData>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>85.98015335018057</v>
+        <v>85.98015335018063</v>
       </c>
       <c r="H2" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.78798524732305</v>
+        <v>15.78798524732332</v>
       </c>
       <c r="K2" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.98015335018043</v>
+        <v>85.98015335018061</v>
       </c>
       <c r="M2" t="n">
-        <v>64.2385360761146</v>
+        <v>64.2385360761144</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.78798524732311</v>
+        <v>15.78798524732341</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>142.9833385739893</v>
+        <v>142.9833385739892</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>557.7799487654789</v>
+        <v>557.779948765479</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>318.3345556063633</v>
+        <v>318.3345556063623</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>313.8869031769054</v>
+        <v>313.886903176905</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.98015335018057</v>
+        <v>85.98015335018063</v>
       </c>
       <c r="M2" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.78798524732305</v>
+        <v>15.78798524732332</v>
       </c>
       <c r="P2" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>557.7799487654789</v>
+        <v>557.779948765479</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>53.62465884835802</v>
+        <v>53.62465884835804</v>
       </c>
       <c r="S11" t="n">
         <v>101.7681385975039</v>
@@ -28169,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>85.35633488202544</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28181,13 +28181,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>34.04666911888108</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="H12" t="n">
-        <v>95.96820235480737</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>57.10960200584134</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28229,13 +28229,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>101.7681385975039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>53.62465884835802</v>
+        <v>53.62465884835804</v>
       </c>
       <c r="S14" t="n">
         <v>101.7681385975039</v>
@@ -28415,16 +28415,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>91.15627112472205</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>95.96820235480739</v>
       </c>
       <c r="I15" t="n">
-        <v>45.26492886275211</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>40.09140601927353</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>101.7681385975039</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>101.7681385975039</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>101.7681385975039</v>
       </c>
       <c r="J16" t="n">
-        <v>101.7681385975035</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="K16" t="n">
         <v>101.7681385975039</v>
@@ -28515,7 +28515,7 @@
         <v>101.7681385975039</v>
       </c>
       <c r="M16" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975043</v>
       </c>
       <c r="N16" t="n">
         <v>101.7681385975039</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="C17" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="D17" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="E17" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="G17" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="H17" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="I17" t="n">
         <v>148.9287648520408</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>53.62465884835802</v>
+        <v>53.62465884835804</v>
       </c>
       <c r="S17" t="n">
         <v>172.2582621877897</v>
       </c>
       <c r="T17" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="U17" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="V17" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="W17" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="X17" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="Y17" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
     </row>
     <row r="18">
@@ -28649,19 +28649,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>7.365795493999741</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>95.96820235480737</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.988022163711506</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>185.5586142282266</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28725,16 +28725,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>143.8107450696222</v>
+        <v>166.9727123385639</v>
       </c>
       <c r="H19" t="n">
         <v>155.4864973730212</v>
@@ -28743,7 +28743,7 @@
         <v>135.0070978221555</v>
       </c>
       <c r="J19" t="n">
-        <v>41.22746252636384</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>16.56148380817548</v>
       </c>
       <c r="R19" t="n">
         <v>136.4331932014877</v>
       </c>
       <c r="S19" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="T19" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="U19" t="n">
-        <v>187.7482919476845</v>
+        <v>39.34870511667077</v>
       </c>
       <c r="V19" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="W19" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="X19" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="Y19" t="n">
-        <v>187.7482919476845</v>
+        <v>187.7482919476846</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="C20" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="D20" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="E20" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="G20" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="H20" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="I20" t="n">
         <v>148.9287648520408</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>53.62465884835802</v>
+        <v>53.62465884835804</v>
       </c>
       <c r="S20" t="n">
         <v>172.2582621877897</v>
       </c>
       <c r="T20" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="U20" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="V20" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="W20" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="X20" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="Y20" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
     </row>
     <row r="21">
@@ -28886,13 +28886,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>28.4120860983399</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1336659090721</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28943,10 +28943,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>101.1443201293488</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>187.7482919476846</v>
       </c>
     </row>
     <row r="22">
@@ -28959,7 +28959,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>55.72734071909241</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>16.56148380817548</v>
       </c>
       <c r="R22" t="n">
         <v>136.4331932014877</v>
       </c>
       <c r="S22" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="T22" t="n">
-        <v>92.11730663201456</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="V22" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="W22" t="n">
-        <v>187.7482919476848</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="Y22" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="C23" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="D23" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="E23" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="G23" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="H23" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="I23" t="n">
         <v>148.9287648520408</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>53.62465884835802</v>
+        <v>53.62465884835804</v>
       </c>
       <c r="S23" t="n">
         <v>172.2582621877897</v>
       </c>
       <c r="T23" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="U23" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="V23" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="W23" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="X23" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="Y23" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
     </row>
     <row r="24">
@@ -29120,7 +29120,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1336659090721</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>16.20004309643403</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>145.5589030715301</v>
@@ -29174,7 +29174,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>5.883458365812118</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29205,10 +29205,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9727123385639</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>155.4864973730212</v>
@@ -29217,7 +29217,7 @@
         <v>135.0070978221555</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>34.54928349969141</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>136.4331932014877</v>
       </c>
       <c r="S25" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="T25" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="U25" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="V25" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="W25" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="X25" t="n">
-        <v>187.7482919476848</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="Y25" t="n">
-        <v>86.08882968186572</v>
+        <v>187.7482919476846</v>
       </c>
     </row>
     <row r="26">
@@ -29311,13 +29311,13 @@
         <v>101.7681385975039</v>
       </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>72.63127504991434</v>
+      </c>
+      <c r="Q26" t="n">
         <v>101.7681385975039</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>72.63127504991394</v>
       </c>
       <c r="R26" t="n">
         <v>101.7681385975039</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="C29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="D29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="E29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="F29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="G29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="H29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="I29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="J29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="K29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="L29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="M29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="N29" t="n">
-        <v>72.6312750499111</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="P29" t="n">
-        <v>101.7681385975041</v>
+        <v>72.63127504991434</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.7681385975041</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="S29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="T29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="U29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="V29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="W29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="X29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="Y29" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="C31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="D31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="E31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="F31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="H31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="I31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="J31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="K31" t="n">
-        <v>101.7681385975002</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="L31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="M31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975042</v>
       </c>
       <c r="N31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="O31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="Q31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="R31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="S31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="T31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="U31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="V31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="W31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="X31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="Y31" t="n">
-        <v>101.7681385975041</v>
+        <v>101.7681385975039</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="C32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="D32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="E32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="F32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="G32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="H32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="I32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="J32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="K32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="L32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="N32" t="n">
-        <v>72.63127504991178</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="O32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="P32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.768138597504</v>
+        <v>19.00661620155631</v>
       </c>
       <c r="R32" t="n">
-        <v>101.768138597504</v>
+        <v>53.62465884835804</v>
       </c>
       <c r="S32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="T32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="U32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="V32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="W32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="X32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="Y32" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="C34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="D34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="E34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="F34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="G34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="H34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="I34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="J34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="K34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975045</v>
       </c>
       <c r="L34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="M34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="N34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="O34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="P34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="R34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="S34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="T34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="U34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="V34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="W34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="X34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
       <c r="Y34" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975039</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="C35" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="D35" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="E35" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="F35" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="G35" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="H35" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="I35" t="n">
         <v>148.9287648520408</v>
@@ -30034,25 +30034,25 @@
         <v>53.62465884835804</v>
       </c>
       <c r="S35" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="T35" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="U35" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="V35" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="W35" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="X35" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="C37" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30153,10 +30153,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="H37" t="n">
         <v>155.4864973730212</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.56148380817548</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>136.4331932014877</v>
       </c>
       <c r="S37" t="n">
-        <v>161.6287598259898</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="T37" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="U37" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="V37" t="n">
-        <v>166.0066746736182</v>
+        <v>163.139417385027</v>
       </c>
       <c r="W37" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="X37" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="Y37" t="n">
-        <v>166.0066746736182</v>
+        <v>166.0066746736183</v>
       </c>
     </row>
     <row r="38">
@@ -30393,13 +30393,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>161.6287598259899</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="H40" t="n">
         <v>155.4864973730212</v>
       </c>
       <c r="I40" t="n">
-        <v>135.0070978221555</v>
+        <v>130.6291829745271</v>
       </c>
       <c r="J40" t="n">
         <v>41.22746252636385</v>
@@ -30429,7 +30429,7 @@
         <v>136.4331932014877</v>
       </c>
       <c r="S40" t="n">
-        <v>166.0066746736182</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>166.0066746736182</v>
@@ -30447,7 +30447,7 @@
         <v>166.0066746736182</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>166.0066746736182</v>
       </c>
     </row>
     <row r="41">
@@ -30669,16 +30669,16 @@
         <v>166.0066746736183</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>161.6287598259892</v>
+      </c>
+      <c r="W43" t="n">
         <v>166.0066746736183</v>
-      </c>
-      <c r="V43" t="n">
-        <v>166.0066746736183</v>
-      </c>
-      <c r="W43" t="n">
-        <v>161.6287598259894</v>
       </c>
       <c r="X43" t="n">
         <v>166.0066746736183</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="C44" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="D44" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="E44" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="F44" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="G44" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="H44" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="I44" t="n">
         <v>148.9287648520408</v>
@@ -30745,25 +30745,25 @@
         <v>53.62465884835804</v>
       </c>
       <c r="S44" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="T44" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="U44" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="V44" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="W44" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="X44" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="Y44" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="C46" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="H46" t="n">
         <v>155.4864973730212</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.56148380817548</v>
+        <v>12.18356896054642</v>
       </c>
       <c r="R46" t="n">
         <v>136.4331932014877</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="T46" t="n">
-        <v>161.6287598259911</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="U46" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="V46" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="W46" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="X46" t="n">
-        <v>166.0066746736181</v>
+        <v>166.0066746736183</v>
       </c>
       <c r="Y46" t="n">
-        <v>166.0066746736181</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5748073912522179</v>
+        <v>0.5748073912522176</v>
       </c>
       <c r="H11" t="n">
-        <v>5.886746195661779</v>
+        <v>5.886746195661775</v>
       </c>
       <c r="I11" t="n">
-        <v>22.16026195125115</v>
+        <v>22.16026195125114</v>
       </c>
       <c r="J11" t="n">
-        <v>48.78605882329298</v>
+        <v>48.78605882329295</v>
       </c>
       <c r="K11" t="n">
-        <v>73.11765569499939</v>
+        <v>73.11765569499934</v>
       </c>
       <c r="L11" t="n">
-        <v>90.70891739503446</v>
+        <v>90.7089173950344</v>
       </c>
       <c r="M11" t="n">
-        <v>100.9311483392161</v>
+        <v>100.931148339216</v>
       </c>
       <c r="N11" t="n">
-        <v>102.5643198396115</v>
+        <v>102.5643198396114</v>
       </c>
       <c r="O11" t="n">
-        <v>96.84857884284722</v>
+        <v>96.84857884284716</v>
       </c>
       <c r="P11" t="n">
-        <v>82.65802137130807</v>
+        <v>82.65802137130802</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.072731672088</v>
+        <v>62.07273167208796</v>
       </c>
       <c r="R11" t="n">
-        <v>36.10724479074717</v>
+        <v>36.10724479074715</v>
       </c>
       <c r="S11" t="n">
-        <v>13.09842342815993</v>
+        <v>13.09842342815992</v>
       </c>
       <c r="T11" t="n">
-        <v>2.516219355206585</v>
+        <v>2.516219355206584</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04598459130017743</v>
+        <v>0.0459845913001774</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.307549067876128</v>
+        <v>0.3075490678761278</v>
       </c>
       <c r="H12" t="n">
-        <v>2.970276523961553</v>
+        <v>2.970276523961551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.58886045099827</v>
+        <v>10.58886045099826</v>
       </c>
       <c r="J12" t="n">
-        <v>29.05664241719155</v>
+        <v>29.05664241719154</v>
       </c>
       <c r="K12" t="n">
-        <v>49.66242996489213</v>
+        <v>49.6624299648921</v>
       </c>
       <c r="L12" t="n">
-        <v>66.77726581231455</v>
+        <v>66.77726581231451</v>
       </c>
       <c r="M12" t="n">
-        <v>77.92591952282417</v>
+        <v>77.92591952282413</v>
       </c>
       <c r="N12" t="n">
-        <v>79.98838673678296</v>
+        <v>79.98838673678291</v>
       </c>
       <c r="O12" t="n">
-        <v>73.1737468643698</v>
+        <v>73.17374686436976</v>
       </c>
       <c r="P12" t="n">
-        <v>58.72838297013536</v>
+        <v>58.72838297013532</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.25836873450364</v>
+        <v>39.25836873450362</v>
       </c>
       <c r="R12" t="n">
-        <v>19.09502019673013</v>
+        <v>19.09502019673012</v>
       </c>
       <c r="S12" t="n">
-        <v>5.712589045857023</v>
+        <v>5.712589045857019</v>
       </c>
       <c r="T12" t="n">
-        <v>1.239638567448077</v>
+        <v>1.239638567448076</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02023349130764001</v>
+        <v>0.02023349130764</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2578388072645709</v>
+        <v>0.2578388072645708</v>
       </c>
       <c r="H13" t="n">
-        <v>2.292421395497732</v>
+        <v>2.292421395497731</v>
       </c>
       <c r="I13" t="n">
-        <v>7.753916131192734</v>
+        <v>7.75391613119273</v>
       </c>
       <c r="J13" t="n">
-        <v>18.22920367360516</v>
+        <v>18.22920367360515</v>
       </c>
       <c r="K13" t="n">
-        <v>29.95618142582923</v>
+        <v>29.95618142582921</v>
       </c>
       <c r="L13" t="n">
-        <v>38.33359867277085</v>
+        <v>38.33359867277083</v>
       </c>
       <c r="M13" t="n">
-        <v>40.41740503329996</v>
+        <v>40.41740503329994</v>
       </c>
       <c r="N13" t="n">
-        <v>39.45636947895023</v>
+        <v>39.4563694789502</v>
       </c>
       <c r="O13" t="n">
-        <v>36.44434341226864</v>
+        <v>36.44434341226862</v>
       </c>
       <c r="P13" t="n">
-        <v>31.18443174407136</v>
+        <v>31.18443174407134</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.59048412467239</v>
+        <v>21.59048412467238</v>
       </c>
       <c r="R13" t="n">
         <v>11.59337037027788</v>
       </c>
       <c r="S13" t="n">
-        <v>4.493427213874384</v>
+        <v>4.493427213874381</v>
       </c>
       <c r="T13" t="n">
-        <v>1.101674903766803</v>
+        <v>1.101674903766802</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01406393494170388</v>
+        <v>0.01406393494170387</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5748073912522179</v>
+        <v>0.5748073912522176</v>
       </c>
       <c r="H14" t="n">
-        <v>5.886746195661779</v>
+        <v>5.886746195661775</v>
       </c>
       <c r="I14" t="n">
-        <v>22.16026195125115</v>
+        <v>22.16026195125114</v>
       </c>
       <c r="J14" t="n">
-        <v>48.78605882329298</v>
+        <v>48.78605882329295</v>
       </c>
       <c r="K14" t="n">
-        <v>73.11765569499939</v>
+        <v>73.11765569499934</v>
       </c>
       <c r="L14" t="n">
-        <v>90.70891739503446</v>
+        <v>90.7089173950344</v>
       </c>
       <c r="M14" t="n">
-        <v>100.9311483392161</v>
+        <v>100.931148339216</v>
       </c>
       <c r="N14" t="n">
-        <v>102.5643198396115</v>
+        <v>102.5643198396114</v>
       </c>
       <c r="O14" t="n">
-        <v>96.84857884284722</v>
+        <v>96.84857884284716</v>
       </c>
       <c r="P14" t="n">
-        <v>82.65802137130807</v>
+        <v>82.65802137130802</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.072731672088</v>
+        <v>62.07273167208796</v>
       </c>
       <c r="R14" t="n">
-        <v>36.10724479074717</v>
+        <v>36.10724479074715</v>
       </c>
       <c r="S14" t="n">
-        <v>13.09842342815993</v>
+        <v>13.09842342815992</v>
       </c>
       <c r="T14" t="n">
-        <v>2.516219355206585</v>
+        <v>2.516219355206584</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04598459130017743</v>
+        <v>0.0459845913001774</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.307549067876128</v>
+        <v>0.3075490678761278</v>
       </c>
       <c r="H15" t="n">
-        <v>2.970276523961553</v>
+        <v>2.970276523961551</v>
       </c>
       <c r="I15" t="n">
-        <v>10.58886045099827</v>
+        <v>10.58886045099826</v>
       </c>
       <c r="J15" t="n">
-        <v>29.05664241719155</v>
+        <v>29.05664241719154</v>
       </c>
       <c r="K15" t="n">
-        <v>49.66242996489213</v>
+        <v>49.6624299648921</v>
       </c>
       <c r="L15" t="n">
-        <v>66.77726581231455</v>
+        <v>66.77726581231451</v>
       </c>
       <c r="M15" t="n">
-        <v>77.92591952282417</v>
+        <v>77.92591952282413</v>
       </c>
       <c r="N15" t="n">
-        <v>79.98838673678296</v>
+        <v>79.98838673678291</v>
       </c>
       <c r="O15" t="n">
-        <v>73.1737468643698</v>
+        <v>73.17374686436976</v>
       </c>
       <c r="P15" t="n">
-        <v>58.72838297013536</v>
+        <v>58.72838297013532</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.25836873450364</v>
+        <v>39.25836873450362</v>
       </c>
       <c r="R15" t="n">
-        <v>19.09502019673013</v>
+        <v>19.09502019673012</v>
       </c>
       <c r="S15" t="n">
-        <v>5.712589045857023</v>
+        <v>5.712589045857019</v>
       </c>
       <c r="T15" t="n">
-        <v>1.239638567448077</v>
+        <v>1.239638567448076</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02023349130764001</v>
+        <v>0.02023349130764</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2578388072645709</v>
+        <v>0.2578388072645708</v>
       </c>
       <c r="H16" t="n">
-        <v>2.292421395497732</v>
+        <v>2.292421395497731</v>
       </c>
       <c r="I16" t="n">
-        <v>7.753916131192734</v>
+        <v>7.75391613119273</v>
       </c>
       <c r="J16" t="n">
-        <v>18.22920367360516</v>
+        <v>18.22920367360515</v>
       </c>
       <c r="K16" t="n">
-        <v>29.95618142582923</v>
+        <v>29.95618142582921</v>
       </c>
       <c r="L16" t="n">
-        <v>38.33359867277085</v>
+        <v>38.33359867277083</v>
       </c>
       <c r="M16" t="n">
-        <v>40.41740503329996</v>
+        <v>40.41740503329994</v>
       </c>
       <c r="N16" t="n">
-        <v>39.45636947895023</v>
+        <v>39.4563694789502</v>
       </c>
       <c r="O16" t="n">
-        <v>36.44434341226864</v>
+        <v>36.44434341226862</v>
       </c>
       <c r="P16" t="n">
-        <v>31.18443174407136</v>
+        <v>31.18443174407134</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.59048412467239</v>
+        <v>21.59048412467238</v>
       </c>
       <c r="R16" t="n">
         <v>11.59337037027788</v>
       </c>
       <c r="S16" t="n">
-        <v>4.493427213874384</v>
+        <v>4.493427213874381</v>
       </c>
       <c r="T16" t="n">
-        <v>1.101674903766803</v>
+        <v>1.101674903766802</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01406393494170388</v>
+        <v>0.01406393494170387</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5748073912522179</v>
+        <v>0.5748073912522176</v>
       </c>
       <c r="H17" t="n">
-        <v>5.886746195661779</v>
+        <v>5.886746195661775</v>
       </c>
       <c r="I17" t="n">
-        <v>22.16026195125115</v>
+        <v>22.16026195125114</v>
       </c>
       <c r="J17" t="n">
-        <v>48.78605882329298</v>
+        <v>48.78605882329295</v>
       </c>
       <c r="K17" t="n">
-        <v>73.11765569499939</v>
+        <v>73.11765569499934</v>
       </c>
       <c r="L17" t="n">
-        <v>90.70891739503446</v>
+        <v>90.7089173950344</v>
       </c>
       <c r="M17" t="n">
-        <v>100.9311483392161</v>
+        <v>100.931148339216</v>
       </c>
       <c r="N17" t="n">
-        <v>102.5643198396115</v>
+        <v>102.5643198396114</v>
       </c>
       <c r="O17" t="n">
-        <v>96.84857884284722</v>
+        <v>96.84857884284716</v>
       </c>
       <c r="P17" t="n">
-        <v>82.65802137130807</v>
+        <v>82.65802137130802</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.072731672088</v>
+        <v>62.07273167208796</v>
       </c>
       <c r="R17" t="n">
-        <v>36.10724479074717</v>
+        <v>36.10724479074715</v>
       </c>
       <c r="S17" t="n">
-        <v>13.09842342815993</v>
+        <v>13.09842342815992</v>
       </c>
       <c r="T17" t="n">
-        <v>2.516219355206585</v>
+        <v>2.516219355206584</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04598459130017743</v>
+        <v>0.0459845913001774</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.307549067876128</v>
+        <v>0.3075490678761278</v>
       </c>
       <c r="H18" t="n">
-        <v>2.970276523961553</v>
+        <v>2.970276523961551</v>
       </c>
       <c r="I18" t="n">
-        <v>10.58886045099827</v>
+        <v>10.58886045099826</v>
       </c>
       <c r="J18" t="n">
-        <v>29.05664241719155</v>
+        <v>29.05664241719154</v>
       </c>
       <c r="K18" t="n">
-        <v>49.66242996489213</v>
+        <v>49.6624299648921</v>
       </c>
       <c r="L18" t="n">
-        <v>66.77726581231455</v>
+        <v>66.77726581231451</v>
       </c>
       <c r="M18" t="n">
-        <v>77.92591952282417</v>
+        <v>77.92591952282413</v>
       </c>
       <c r="N18" t="n">
-        <v>79.98838673678296</v>
+        <v>79.98838673678291</v>
       </c>
       <c r="O18" t="n">
-        <v>73.1737468643698</v>
+        <v>73.17374686436976</v>
       </c>
       <c r="P18" t="n">
-        <v>58.72838297013536</v>
+        <v>58.72838297013532</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.25836873450364</v>
+        <v>39.25836873450362</v>
       </c>
       <c r="R18" t="n">
-        <v>19.09502019673013</v>
+        <v>19.09502019673012</v>
       </c>
       <c r="S18" t="n">
-        <v>5.712589045857023</v>
+        <v>5.712589045857019</v>
       </c>
       <c r="T18" t="n">
-        <v>1.239638567448077</v>
+        <v>1.239638567448076</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02023349130764001</v>
+        <v>0.02023349130764</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2578388072645709</v>
+        <v>0.2578388072645708</v>
       </c>
       <c r="H19" t="n">
-        <v>2.292421395497732</v>
+        <v>2.292421395497731</v>
       </c>
       <c r="I19" t="n">
-        <v>7.753916131192734</v>
+        <v>7.75391613119273</v>
       </c>
       <c r="J19" t="n">
-        <v>18.22920367360516</v>
+        <v>18.22920367360515</v>
       </c>
       <c r="K19" t="n">
-        <v>29.95618142582923</v>
+        <v>29.95618142582921</v>
       </c>
       <c r="L19" t="n">
-        <v>38.33359867277085</v>
+        <v>38.33359867277083</v>
       </c>
       <c r="M19" t="n">
-        <v>40.41740503329996</v>
+        <v>40.41740503329994</v>
       </c>
       <c r="N19" t="n">
-        <v>39.45636947895023</v>
+        <v>39.4563694789502</v>
       </c>
       <c r="O19" t="n">
-        <v>36.44434341226864</v>
+        <v>36.44434341226862</v>
       </c>
       <c r="P19" t="n">
-        <v>31.18443174407136</v>
+        <v>31.18443174407134</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.59048412467239</v>
+        <v>21.59048412467238</v>
       </c>
       <c r="R19" t="n">
         <v>11.59337037027788</v>
       </c>
       <c r="S19" t="n">
-        <v>4.493427213874384</v>
+        <v>4.493427213874381</v>
       </c>
       <c r="T19" t="n">
-        <v>1.101674903766803</v>
+        <v>1.101674903766802</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01406393494170388</v>
+        <v>0.01406393494170387</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5748073912522179</v>
+        <v>0.5748073912522176</v>
       </c>
       <c r="H20" t="n">
-        <v>5.886746195661779</v>
+        <v>5.886746195661775</v>
       </c>
       <c r="I20" t="n">
-        <v>22.16026195125115</v>
+        <v>22.16026195125114</v>
       </c>
       <c r="J20" t="n">
-        <v>48.78605882329298</v>
+        <v>48.78605882329295</v>
       </c>
       <c r="K20" t="n">
-        <v>73.11765569499939</v>
+        <v>73.11765569499934</v>
       </c>
       <c r="L20" t="n">
-        <v>90.70891739503446</v>
+        <v>90.7089173950344</v>
       </c>
       <c r="M20" t="n">
-        <v>100.9311483392161</v>
+        <v>100.931148339216</v>
       </c>
       <c r="N20" t="n">
-        <v>102.5643198396115</v>
+        <v>102.5643198396114</v>
       </c>
       <c r="O20" t="n">
-        <v>96.84857884284722</v>
+        <v>96.84857884284716</v>
       </c>
       <c r="P20" t="n">
-        <v>82.65802137130807</v>
+        <v>82.65802137130802</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.072731672088</v>
+        <v>62.07273167208796</v>
       </c>
       <c r="R20" t="n">
-        <v>36.10724479074717</v>
+        <v>36.10724479074715</v>
       </c>
       <c r="S20" t="n">
-        <v>13.09842342815993</v>
+        <v>13.09842342815992</v>
       </c>
       <c r="T20" t="n">
-        <v>2.516219355206585</v>
+        <v>2.516219355206584</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04598459130017743</v>
+        <v>0.0459845913001774</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.307549067876128</v>
+        <v>0.3075490678761278</v>
       </c>
       <c r="H21" t="n">
-        <v>2.970276523961553</v>
+        <v>2.970276523961551</v>
       </c>
       <c r="I21" t="n">
-        <v>10.58886045099827</v>
+        <v>10.58886045099826</v>
       </c>
       <c r="J21" t="n">
-        <v>29.05664241719155</v>
+        <v>29.05664241719154</v>
       </c>
       <c r="K21" t="n">
-        <v>49.66242996489213</v>
+        <v>49.6624299648921</v>
       </c>
       <c r="L21" t="n">
-        <v>66.77726581231455</v>
+        <v>66.77726581231451</v>
       </c>
       <c r="M21" t="n">
-        <v>77.92591952282417</v>
+        <v>77.92591952282413</v>
       </c>
       <c r="N21" t="n">
-        <v>79.98838673678296</v>
+        <v>79.98838673678291</v>
       </c>
       <c r="O21" t="n">
-        <v>73.1737468643698</v>
+        <v>73.17374686436976</v>
       </c>
       <c r="P21" t="n">
-        <v>58.72838297013536</v>
+        <v>58.72838297013532</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.25836873450364</v>
+        <v>39.25836873450362</v>
       </c>
       <c r="R21" t="n">
-        <v>19.09502019673013</v>
+        <v>19.09502019673012</v>
       </c>
       <c r="S21" t="n">
-        <v>5.712589045857023</v>
+        <v>5.712589045857019</v>
       </c>
       <c r="T21" t="n">
-        <v>1.239638567448077</v>
+        <v>1.239638567448076</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02023349130764001</v>
+        <v>0.02023349130764</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2578388072645709</v>
+        <v>0.2578388072645708</v>
       </c>
       <c r="H22" t="n">
-        <v>2.292421395497732</v>
+        <v>2.292421395497731</v>
       </c>
       <c r="I22" t="n">
-        <v>7.753916131192734</v>
+        <v>7.75391613119273</v>
       </c>
       <c r="J22" t="n">
-        <v>18.22920367360516</v>
+        <v>18.22920367360515</v>
       </c>
       <c r="K22" t="n">
-        <v>29.95618142582923</v>
+        <v>29.95618142582921</v>
       </c>
       <c r="L22" t="n">
-        <v>38.33359867277085</v>
+        <v>38.33359867277083</v>
       </c>
       <c r="M22" t="n">
-        <v>40.41740503329996</v>
+        <v>40.41740503329994</v>
       </c>
       <c r="N22" t="n">
-        <v>39.45636947895023</v>
+        <v>39.4563694789502</v>
       </c>
       <c r="O22" t="n">
-        <v>36.44434341226864</v>
+        <v>36.44434341226862</v>
       </c>
       <c r="P22" t="n">
-        <v>31.18443174407136</v>
+        <v>31.18443174407134</v>
       </c>
       <c r="Q22" t="n">
-        <v>21.59048412467239</v>
+        <v>21.59048412467238</v>
       </c>
       <c r="R22" t="n">
         <v>11.59337037027788</v>
       </c>
       <c r="S22" t="n">
-        <v>4.493427213874384</v>
+        <v>4.493427213874381</v>
       </c>
       <c r="T22" t="n">
-        <v>1.101674903766803</v>
+        <v>1.101674903766802</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01406393494170388</v>
+        <v>0.01406393494170387</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5748073912522179</v>
+        <v>0.5748073912522176</v>
       </c>
       <c r="H23" t="n">
-        <v>5.886746195661779</v>
+        <v>5.886746195661775</v>
       </c>
       <c r="I23" t="n">
-        <v>22.16026195125115</v>
+        <v>22.16026195125114</v>
       </c>
       <c r="J23" t="n">
-        <v>48.78605882329298</v>
+        <v>48.78605882329295</v>
       </c>
       <c r="K23" t="n">
-        <v>73.11765569499939</v>
+        <v>73.11765569499934</v>
       </c>
       <c r="L23" t="n">
-        <v>90.70891739503446</v>
+        <v>90.7089173950344</v>
       </c>
       <c r="M23" t="n">
-        <v>100.9311483392161</v>
+        <v>100.931148339216</v>
       </c>
       <c r="N23" t="n">
-        <v>102.5643198396115</v>
+        <v>102.5643198396114</v>
       </c>
       <c r="O23" t="n">
-        <v>96.84857884284722</v>
+        <v>96.84857884284716</v>
       </c>
       <c r="P23" t="n">
-        <v>82.65802137130807</v>
+        <v>82.65802137130802</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.072731672088</v>
+        <v>62.07273167208796</v>
       </c>
       <c r="R23" t="n">
-        <v>36.10724479074717</v>
+        <v>36.10724479074715</v>
       </c>
       <c r="S23" t="n">
-        <v>13.09842342815993</v>
+        <v>13.09842342815992</v>
       </c>
       <c r="T23" t="n">
-        <v>2.516219355206585</v>
+        <v>2.516219355206584</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04598459130017743</v>
+        <v>0.0459845913001774</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.307549067876128</v>
+        <v>0.3075490678761278</v>
       </c>
       <c r="H24" t="n">
-        <v>2.970276523961553</v>
+        <v>2.970276523961551</v>
       </c>
       <c r="I24" t="n">
-        <v>10.58886045099827</v>
+        <v>10.58886045099826</v>
       </c>
       <c r="J24" t="n">
-        <v>29.05664241719155</v>
+        <v>29.05664241719154</v>
       </c>
       <c r="K24" t="n">
-        <v>49.66242996489213</v>
+        <v>49.6624299648921</v>
       </c>
       <c r="L24" t="n">
-        <v>66.77726581231455</v>
+        <v>66.77726581231451</v>
       </c>
       <c r="M24" t="n">
-        <v>77.92591952282417</v>
+        <v>77.92591952282413</v>
       </c>
       <c r="N24" t="n">
-        <v>79.98838673678296</v>
+        <v>79.98838673678291</v>
       </c>
       <c r="O24" t="n">
-        <v>73.1737468643698</v>
+        <v>73.17374686436976</v>
       </c>
       <c r="P24" t="n">
-        <v>58.72838297013536</v>
+        <v>58.72838297013532</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.25836873450364</v>
+        <v>39.25836873450362</v>
       </c>
       <c r="R24" t="n">
-        <v>19.09502019673013</v>
+        <v>19.09502019673012</v>
       </c>
       <c r="S24" t="n">
-        <v>5.712589045857023</v>
+        <v>5.712589045857019</v>
       </c>
       <c r="T24" t="n">
-        <v>1.239638567448077</v>
+        <v>1.239638567448076</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02023349130764001</v>
+        <v>0.02023349130764</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2578388072645709</v>
+        <v>0.2578388072645708</v>
       </c>
       <c r="H25" t="n">
-        <v>2.292421395497732</v>
+        <v>2.292421395497731</v>
       </c>
       <c r="I25" t="n">
-        <v>7.753916131192734</v>
+        <v>7.75391613119273</v>
       </c>
       <c r="J25" t="n">
-        <v>18.22920367360516</v>
+        <v>18.22920367360515</v>
       </c>
       <c r="K25" t="n">
-        <v>29.95618142582923</v>
+        <v>29.95618142582921</v>
       </c>
       <c r="L25" t="n">
-        <v>38.33359867277085</v>
+        <v>38.33359867277083</v>
       </c>
       <c r="M25" t="n">
-        <v>40.41740503329996</v>
+        <v>40.41740503329994</v>
       </c>
       <c r="N25" t="n">
-        <v>39.45636947895023</v>
+        <v>39.4563694789502</v>
       </c>
       <c r="O25" t="n">
-        <v>36.44434341226864</v>
+        <v>36.44434341226862</v>
       </c>
       <c r="P25" t="n">
-        <v>31.18443174407136</v>
+        <v>31.18443174407134</v>
       </c>
       <c r="Q25" t="n">
-        <v>21.59048412467239</v>
+        <v>21.59048412467238</v>
       </c>
       <c r="R25" t="n">
         <v>11.59337037027788</v>
       </c>
       <c r="S25" t="n">
-        <v>4.493427213874384</v>
+        <v>4.493427213874381</v>
       </c>
       <c r="T25" t="n">
-        <v>1.101674903766803</v>
+        <v>1.101674903766802</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01406393494170388</v>
+        <v>0.01406393494170387</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5748073912522179</v>
+        <v>0.5748073912522176</v>
       </c>
       <c r="H26" t="n">
-        <v>5.886746195661779</v>
+        <v>5.886746195661775</v>
       </c>
       <c r="I26" t="n">
-        <v>22.16026195125115</v>
+        <v>22.16026195125114</v>
       </c>
       <c r="J26" t="n">
-        <v>48.78605882329298</v>
+        <v>48.78605882329295</v>
       </c>
       <c r="K26" t="n">
-        <v>73.11765569499939</v>
+        <v>73.11765569499934</v>
       </c>
       <c r="L26" t="n">
-        <v>90.70891739503446</v>
+        <v>90.7089173950344</v>
       </c>
       <c r="M26" t="n">
-        <v>100.9311483392161</v>
+        <v>100.931148339216</v>
       </c>
       <c r="N26" t="n">
-        <v>102.5643198396115</v>
+        <v>102.5643198396114</v>
       </c>
       <c r="O26" t="n">
-        <v>96.84857884284722</v>
+        <v>96.84857884284716</v>
       </c>
       <c r="P26" t="n">
-        <v>82.65802137130807</v>
+        <v>82.65802137130802</v>
       </c>
       <c r="Q26" t="n">
-        <v>62.072731672088</v>
+        <v>62.07273167208796</v>
       </c>
       <c r="R26" t="n">
-        <v>36.10724479074717</v>
+        <v>36.10724479074715</v>
       </c>
       <c r="S26" t="n">
-        <v>13.09842342815993</v>
+        <v>13.09842342815992</v>
       </c>
       <c r="T26" t="n">
-        <v>2.516219355206585</v>
+        <v>2.516219355206584</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04598459130017743</v>
+        <v>0.0459845913001774</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.307549067876128</v>
+        <v>0.3075490678761278</v>
       </c>
       <c r="H27" t="n">
-        <v>2.970276523961553</v>
+        <v>2.970276523961551</v>
       </c>
       <c r="I27" t="n">
-        <v>10.58886045099827</v>
+        <v>10.58886045099826</v>
       </c>
       <c r="J27" t="n">
-        <v>29.05664241719155</v>
+        <v>29.05664241719154</v>
       </c>
       <c r="K27" t="n">
-        <v>49.66242996489213</v>
+        <v>49.6624299648921</v>
       </c>
       <c r="L27" t="n">
-        <v>66.77726581231455</v>
+        <v>66.77726581231451</v>
       </c>
       <c r="M27" t="n">
-        <v>77.92591952282417</v>
+        <v>77.92591952282413</v>
       </c>
       <c r="N27" t="n">
-        <v>79.98838673678296</v>
+        <v>79.98838673678291</v>
       </c>
       <c r="O27" t="n">
-        <v>73.1737468643698</v>
+        <v>73.17374686436976</v>
       </c>
       <c r="P27" t="n">
-        <v>58.72838297013536</v>
+        <v>58.72838297013532</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.25836873450364</v>
+        <v>39.25836873450362</v>
       </c>
       <c r="R27" t="n">
-        <v>19.09502019673013</v>
+        <v>19.09502019673012</v>
       </c>
       <c r="S27" t="n">
-        <v>5.712589045857023</v>
+        <v>5.712589045857019</v>
       </c>
       <c r="T27" t="n">
-        <v>1.239638567448077</v>
+        <v>1.239638567448076</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02023349130764001</v>
+        <v>0.02023349130764</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2578388072645709</v>
+        <v>0.2578388072645708</v>
       </c>
       <c r="H28" t="n">
-        <v>2.292421395497732</v>
+        <v>2.292421395497731</v>
       </c>
       <c r="I28" t="n">
-        <v>7.753916131192734</v>
+        <v>7.75391613119273</v>
       </c>
       <c r="J28" t="n">
-        <v>18.22920367360516</v>
+        <v>18.22920367360515</v>
       </c>
       <c r="K28" t="n">
-        <v>29.95618142582923</v>
+        <v>29.95618142582921</v>
       </c>
       <c r="L28" t="n">
-        <v>38.33359867277085</v>
+        <v>38.33359867277083</v>
       </c>
       <c r="M28" t="n">
-        <v>40.41740503329996</v>
+        <v>40.41740503329994</v>
       </c>
       <c r="N28" t="n">
-        <v>39.45636947895023</v>
+        <v>39.4563694789502</v>
       </c>
       <c r="O28" t="n">
-        <v>36.44434341226864</v>
+        <v>36.44434341226862</v>
       </c>
       <c r="P28" t="n">
-        <v>31.18443174407136</v>
+        <v>31.18443174407134</v>
       </c>
       <c r="Q28" t="n">
-        <v>21.59048412467239</v>
+        <v>21.59048412467238</v>
       </c>
       <c r="R28" t="n">
         <v>11.59337037027788</v>
       </c>
       <c r="S28" t="n">
-        <v>4.493427213874384</v>
+        <v>4.493427213874381</v>
       </c>
       <c r="T28" t="n">
-        <v>1.101674903766803</v>
+        <v>1.101674903766802</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01406393494170388</v>
+        <v>0.01406393494170387</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>121.5118611190563</v>
+        <v>121.5118611190562</v>
       </c>
       <c r="K11" t="n">
         <v>315.6836880634668</v>
       </c>
       <c r="L11" t="n">
-        <v>442.1082841475054</v>
+        <v>442.1082841475053</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>484.7172074029607</v>
+        <v>484.7172074029606</v>
       </c>
       <c r="O11" t="n">
-        <v>373.98381129239</v>
+        <v>373.9838112923905</v>
       </c>
       <c r="P11" t="n">
         <v>313.119532943079</v>
       </c>
       <c r="Q11" t="n">
-        <v>157.4588465069739</v>
+        <v>157.4588465069738</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>187.3937394958032</v>
+        <v>281.4710689145776</v>
       </c>
       <c r="L12" t="n">
         <v>436.2942811356637</v>
       </c>
       <c r="M12" t="n">
-        <v>557.7799487654789</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>557.7799487654789</v>
+        <v>557.779948765479</v>
       </c>
       <c r="O12" t="n">
-        <v>469.3353133130071</v>
+        <v>469.335313313007</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>363.8757761779103</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>99.82684316879441</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.54067607114011</v>
+        <v>60.5406760711401</v>
       </c>
       <c r="K13" t="n">
         <v>165.6679440078215</v>
       </c>
       <c r="L13" t="n">
-        <v>241.7250497957895</v>
+        <v>241.7250497957894</v>
       </c>
       <c r="M13" t="n">
         <v>261.3709033556541</v>
@@ -35586,7 +35586,7 @@
         <v>196.5570993598963</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.20665478932848</v>
+        <v>85.20665478932847</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>121.5118611190562</v>
       </c>
       <c r="K14" t="n">
         <v>315.6836880634668</v>
       </c>
       <c r="L14" t="n">
-        <v>442.1082841475054</v>
+        <v>442.1082841475053</v>
       </c>
       <c r="M14" t="n">
         <v>498.1424273827392</v>
       </c>
       <c r="N14" t="n">
-        <v>484.7172074029607</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>360.5585913126117</v>
       </c>
       <c r="P14" t="n">
         <v>313.119532943079</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.8120915356808</v>
+        <v>157.4588465069738</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>436.2942811356637</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>557.779948765479</v>
       </c>
       <c r="N15" t="n">
-        <v>557.7799487654789</v>
+        <v>370.5385051355867</v>
       </c>
       <c r="O15" t="n">
-        <v>469.3353133130071</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>363.8757761779103</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.82684316879396</v>
+        <v>198.623651346215</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.54067607113966</v>
+        <v>60.5406760711401</v>
       </c>
       <c r="K16" t="n">
         <v>165.6679440078215</v>
       </c>
       <c r="L16" t="n">
-        <v>241.7250497957895</v>
+        <v>241.7250497957894</v>
       </c>
       <c r="M16" t="n">
-        <v>261.3709033556541</v>
+        <v>261.3709033556544</v>
       </c>
       <c r="N16" t="n">
         <v>260.8430350962525</v>
@@ -35823,7 +35823,7 @@
         <v>196.5570993598963</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.20665478932848</v>
+        <v>85.20665478932847</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>121.5118611190563</v>
+        <v>121.5118611190562</v>
       </c>
       <c r="K17" t="n">
         <v>315.6836880634668</v>
       </c>
       <c r="L17" t="n">
-        <v>442.1082841475054</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>453.7670009910549</v>
+        <v>411.1580777356002</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>484.7172074029606</v>
       </c>
       <c r="O17" t="n">
-        <v>404.9340177042957</v>
+        <v>404.9340177042956</v>
       </c>
       <c r="P17" t="n">
         <v>313.119532943079</v>
       </c>
       <c r="Q17" t="n">
-        <v>157.4588465069739</v>
+        <v>157.4588465069738</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>89.91941669305635</v>
+        <v>89.91941669305633</v>
       </c>
       <c r="K18" t="n">
         <v>281.4710689145776</v>
@@ -35969,19 +35969,19 @@
         <v>436.2942811356637</v>
       </c>
       <c r="M18" t="n">
-        <v>557.7799487654789</v>
+        <v>557.779948765479</v>
       </c>
       <c r="N18" t="n">
-        <v>557.7799487654789</v>
+        <v>9.90742647573834</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>469.335313313007</v>
       </c>
       <c r="P18" t="n">
-        <v>86.71491585496139</v>
+        <v>363.8757761779103</v>
       </c>
       <c r="Q18" t="n">
-        <v>198.623651346215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>63.89980541031753</v>
+        <v>63.89980541031751</v>
       </c>
       <c r="L19" t="n">
         <v>139.9569111982855</v>
@@ -36054,10 +36054,10 @@
         <v>159.0748964987486</v>
       </c>
       <c r="O19" t="n">
-        <v>135.9025721957936</v>
+        <v>135.9025721957935</v>
       </c>
       <c r="P19" t="n">
-        <v>94.78896076239236</v>
+        <v>94.78896076239235</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>121.5118611190563</v>
+        <v>121.5118611190562</v>
       </c>
       <c r="K20" t="n">
         <v>315.6836880634668</v>
       </c>
       <c r="L20" t="n">
-        <v>442.1082841475054</v>
+        <v>411.1580777356002</v>
       </c>
       <c r="M20" t="n">
-        <v>498.1424273827392</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>484.7172074029607</v>
+        <v>484.7172074029606</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>404.9340177042956</v>
       </c>
       <c r="P20" t="n">
-        <v>188.9609168527267</v>
+        <v>313.119532943079</v>
       </c>
       <c r="Q20" t="n">
-        <v>157.4588465069739</v>
+        <v>157.4588465069738</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>89.91941669305633</v>
       </c>
       <c r="K21" t="n">
-        <v>281.4710689145776</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>342.2169517168877</v>
+        <v>436.2942811356637</v>
       </c>
       <c r="M21" t="n">
-        <v>557.7799487654783</v>
+        <v>92.75484404410112</v>
       </c>
       <c r="N21" t="n">
-        <v>557.7799487654783</v>
+        <v>557.779948765479</v>
       </c>
       <c r="O21" t="n">
-        <v>469.3353133130071</v>
+        <v>469.335313313007</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>363.8757761779103</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>198.623651346215</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>63.89980541031753</v>
+        <v>63.89980541031751</v>
       </c>
       <c r="L22" t="n">
         <v>139.9569111982855</v>
@@ -36291,10 +36291,10 @@
         <v>159.0748964987486</v>
       </c>
       <c r="O22" t="n">
-        <v>135.9025721957936</v>
+        <v>135.9025721957935</v>
       </c>
       <c r="P22" t="n">
-        <v>94.78896076239236</v>
+        <v>94.78896076239235</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>34.52751147191805</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>315.6836880634668</v>
       </c>
       <c r="L23" t="n">
-        <v>442.1082841475054</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>498.1424273827392</v>
       </c>
       <c r="N23" t="n">
-        <v>484.7172074029607</v>
+        <v>484.7172074029606</v>
       </c>
       <c r="O23" t="n">
-        <v>404.9340177042957</v>
+        <v>404.9340177042956</v>
       </c>
       <c r="P23" t="n">
         <v>313.119532943079</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.56176189484921</v>
+        <v>157.4588465069738</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>89.91941669305635</v>
+        <v>89.91941669305633</v>
       </c>
       <c r="K24" t="n">
         <v>281.4710689145776</v>
@@ -36443,19 +36443,19 @@
         <v>436.2942811356637</v>
       </c>
       <c r="M24" t="n">
-        <v>557.7799487654783</v>
+        <v>557.7799487654793</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>280.6190884425281</v>
+        <v>469.335313313007</v>
       </c>
       <c r="P24" t="n">
         <v>363.8757761779103</v>
       </c>
       <c r="Q24" t="n">
-        <v>198.623651346215</v>
+        <v>9.907426475738799</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>63.89980541031753</v>
+        <v>63.89980541031751</v>
       </c>
       <c r="L25" t="n">
         <v>139.9569111982855</v>
@@ -36528,10 +36528,10 @@
         <v>159.0748964987486</v>
       </c>
       <c r="O25" t="n">
-        <v>135.9025721957936</v>
+        <v>135.9025721957935</v>
       </c>
       <c r="P25" t="n">
-        <v>94.78896076239236</v>
+        <v>94.78896076239235</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>417.4518266609707</v>
       </c>
       <c r="L26" t="n">
-        <v>543.8764227450093</v>
+        <v>543.8764227450092</v>
       </c>
       <c r="M26" t="n">
         <v>599.9105659802432</v>
       </c>
       <c r="N26" t="n">
-        <v>586.4853460004647</v>
+        <v>586.4853460004646</v>
       </c>
       <c r="O26" t="n">
-        <v>506.7021563017996</v>
+        <v>404.9340177042956</v>
       </c>
       <c r="P26" t="n">
-        <v>313.119532943079</v>
+        <v>385.7508079929933</v>
       </c>
       <c r="Q26" t="n">
-        <v>230.0901215568878</v>
+        <v>259.2269851044778</v>
       </c>
       <c r="R26" t="n">
-        <v>48.14347974914592</v>
+        <v>48.14347974914591</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>89.91941669305635</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>281.4710689145776</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>436.2942811356637</v>
       </c>
       <c r="M27" t="n">
-        <v>567.8585998361842</v>
+        <v>567.8585998361841</v>
       </c>
       <c r="N27" t="n">
-        <v>95.96342635147538</v>
+        <v>596.4183323156941</v>
       </c>
       <c r="O27" t="n">
-        <v>469.3353133130071</v>
+        <v>469.335313313007</v>
       </c>
       <c r="P27" t="n">
-        <v>363.8757761779103</v>
+        <v>234.8113558213253</v>
       </c>
       <c r="Q27" t="n">
         <v>198.623651346215</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>223.2799997165603</v>
+        <v>223.2799997165602</v>
       </c>
       <c r="K29" t="n">
-        <v>417.4518266609709</v>
+        <v>417.4518266609707</v>
       </c>
       <c r="L29" t="n">
-        <v>543.8764227450094</v>
+        <v>543.8764227450092</v>
       </c>
       <c r="M29" t="n">
-        <v>599.9105659802433</v>
+        <v>599.9105659802432</v>
       </c>
       <c r="N29" t="n">
-        <v>557.3484824528717</v>
+        <v>586.4853460004646</v>
       </c>
       <c r="O29" t="n">
-        <v>404.9340177042956</v>
+        <v>506.7021563017995</v>
       </c>
       <c r="P29" t="n">
-        <v>414.887671540583</v>
+        <v>385.7508079929933</v>
       </c>
       <c r="Q29" t="n">
-        <v>259.2269851044779</v>
+        <v>157.4588465069738</v>
       </c>
       <c r="R29" t="n">
-        <v>48.14347974914607</v>
+        <v>48.14347974914591</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>89.91941669305633</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>281.4710689145776</v>
       </c>
       <c r="L30" t="n">
         <v>436.2942811356637</v>
       </c>
       <c r="M30" t="n">
-        <v>348.8747627865433</v>
+        <v>67.40369387196488</v>
       </c>
       <c r="N30" t="n">
         <v>596.4183323156941</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.54067607114025</v>
+        <v>60.5406760711401</v>
       </c>
       <c r="K31" t="n">
-        <v>165.6679440078177</v>
+        <v>165.6679440078215</v>
       </c>
       <c r="L31" t="n">
-        <v>241.7250497957896</v>
+        <v>241.7250497957894</v>
       </c>
       <c r="M31" t="n">
         <v>261.3709033556543</v>
       </c>
       <c r="N31" t="n">
-        <v>260.8430350962527</v>
+        <v>260.8430350962525</v>
       </c>
       <c r="O31" t="n">
-        <v>237.6707107932976</v>
+        <v>237.6707107932975</v>
       </c>
       <c r="P31" t="n">
-        <v>196.5570993598964</v>
+        <v>196.5570993598963</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.20665478932862</v>
+        <v>85.20665478932847</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,13 +37072,13 @@
         <v>417.4518266609707</v>
       </c>
       <c r="L32" t="n">
-        <v>543.8764227450093</v>
+        <v>543.8764227450092</v>
       </c>
       <c r="M32" t="n">
-        <v>498.1424273827392</v>
+        <v>599.9105659802432</v>
       </c>
       <c r="N32" t="n">
-        <v>557.3484824528724</v>
+        <v>586.4853460004646</v>
       </c>
       <c r="O32" t="n">
         <v>506.7021563017995</v>
@@ -37087,10 +37087,10 @@
         <v>414.8876715405829</v>
       </c>
       <c r="Q32" t="n">
-        <v>259.2269851044778</v>
+        <v>176.4654627085301</v>
       </c>
       <c r="R32" t="n">
-        <v>48.14347974914592</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.54067607114011</v>
+        <v>60.54067607114008</v>
       </c>
       <c r="K34" t="n">
-        <v>165.6679440078215</v>
+        <v>165.667944007822</v>
       </c>
       <c r="L34" t="n">
         <v>241.7250497957894</v>
@@ -37245,7 +37245,7 @@
         <v>196.5570993598963</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.20665478932848</v>
+        <v>85.20665478932845</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>436.2942811356637</v>
       </c>
       <c r="M36" t="n">
-        <v>567.8585998361841</v>
+        <v>67.40369387196579</v>
       </c>
       <c r="N36" t="n">
-        <v>95.96342635147583</v>
+        <v>596.4183323156941</v>
       </c>
       <c r="O36" t="n">
         <v>469.335313313007</v>
@@ -37549,7 +37549,7 @@
         <v>442.1082841475053</v>
       </c>
       <c r="M38" t="n">
-        <v>385.3199569998084</v>
+        <v>498.1424273827392</v>
       </c>
       <c r="N38" t="n">
         <v>484.7172074029606</v>
@@ -37561,7 +37561,7 @@
         <v>313.119532943079</v>
       </c>
       <c r="Q38" t="n">
-        <v>157.4588465069738</v>
+        <v>44.63637612404289</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>69.55923098962948</v>
       </c>
       <c r="K39" t="n">
-        <v>281.4710689145776</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>436.2942811356637</v>
@@ -37637,7 +37637,7 @@
         <v>469.335313313007</v>
       </c>
       <c r="P39" t="n">
-        <v>151.9639382529623</v>
+        <v>363.8757761779103</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>121.5118611190562</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>315.6836880634668</v>
@@ -37795,10 +37795,10 @@
         <v>404.9340177042956</v>
       </c>
       <c r="P41" t="n">
-        <v>78.78520144109193</v>
+        <v>313.119532943079</v>
       </c>
       <c r="Q41" t="n">
-        <v>157.4588465069738</v>
+        <v>44.63637612404289</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>281.4710689145776</v>
+        <v>69.55923098962948</v>
       </c>
       <c r="L42" t="n">
         <v>436.2942811356637</v>
@@ -37871,7 +37871,7 @@
         <v>596.4183323156941</v>
       </c>
       <c r="O42" t="n">
-        <v>257.4234753880594</v>
+        <v>469.335313313007</v>
       </c>
       <c r="P42" t="n">
         <v>363.8757761779103</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>44.63637612404521</v>
+        <v>121.5118611190562</v>
       </c>
       <c r="K44" t="n">
         <v>315.6836880634668</v>
@@ -38023,7 +38023,7 @@
         <v>442.1082841475053</v>
       </c>
       <c r="M44" t="n">
-        <v>498.1424273827392</v>
+        <v>263.8080958807522</v>
       </c>
       <c r="N44" t="n">
         <v>484.7172074029606</v>
@@ -38035,7 +38035,7 @@
         <v>313.119532943079</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>157.4588465069738</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>89.91941669305633</v>
       </c>
       <c r="K45" t="n">
         <v>281.4710689145776</v>
@@ -38105,16 +38105,16 @@
         <v>567.8585998361841</v>
       </c>
       <c r="N45" t="n">
-        <v>596.4183323156941</v>
+        <v>95.96342635147583</v>
       </c>
       <c r="O45" t="n">
-        <v>257.423475388059</v>
+        <v>469.335313313007</v>
       </c>
       <c r="P45" t="n">
         <v>363.8757761779103</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>198.623651346215</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
